--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -1,25 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36227F8-029A-4597-99E0-90C1EFB9D23D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>Stock name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>buy date</t>
+  </si>
+  <si>
+    <t>sell date</t>
+  </si>
+  <si>
+    <t>Portfolios</t>
+  </si>
+  <si>
+    <t>optionput</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>price in</t>
+  </si>
+  <si>
+    <t>price out</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>SWKS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +391,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43962</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43963</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/E2-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E3">
+        <v>114.3</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G6" si="0">F3/E3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E4">
+        <v>1397.9</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E5">
+        <v>383.2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E6">
+        <v>108.88</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36227F8-029A-4597-99E0-90C1EFB9D23D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1408C1D3-FDB3-4028-A9D4-55DBBD7F586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Stock name</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>SWKS</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +469,7 @@
         <v>114.3</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G6" si="0">F3/E3-1</f>
+        <f t="shared" ref="G3:G7" si="0">F3/E3-1</f>
         <v>-1</v>
       </c>
     </row>
@@ -517,6 +523,24 @@
         <v>108.88</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43963</v>
+      </c>
+      <c r="E7">
+        <v>324.5</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1408C1D3-FDB3-4028-A9D4-55DBBD7F586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A5373-BE24-4764-9059-BC443612E1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1815" windowWidth="14400" windowHeight="7335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Stock name</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">type </t>
   </si>
   <si>
-    <t>HRL</t>
-  </si>
-  <si>
     <t>buy date</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Total Gain</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +417,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,48 +425,64 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1">
-        <v>43962</v>
+        <v>43959</v>
       </c>
       <c r="D2" s="1">
         <v>43963</v>
       </c>
       <c r="E2">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.35</v>
       </c>
       <c r="G2" s="2">
         <f>F2/E2-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <f>H2*G2</f>
+        <v>374.99999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>43962</v>
@@ -473,12 +495,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>43962</v>
@@ -491,12 +513,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>43962</v>
@@ -509,12 +531,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>43962</v>
@@ -527,12 +549,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>43963</v>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A5373-BE24-4764-9059-BC443612E1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8F8D3-B9A5-4564-BC3C-FCC65FC5C7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1815" windowWidth="14400" windowHeight="7335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Stock name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>NVDA</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>IRM</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Total Gain</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>shares</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +420,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,18 +440,21 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -465,19 +471,23 @@
       <c r="F2">
         <v>0.35</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="2">
         <f>F2/E2-1</f>
         <v>0.74999999999999978</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">E2*G2</f>
         <v>500</v>
       </c>
-      <c r="I2">
-        <f>H2*G2</f>
+      <c r="J2">
+        <f>I2*H2</f>
         <v>374.99999999999989</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -487,15 +497,33 @@
       <c r="C3" s="1">
         <v>43962</v>
       </c>
+      <c r="D3" s="1">
+        <f>C3+10</f>
+        <v>43972</v>
+      </c>
       <c r="E3">
         <v>114.3</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="0">F3/E3-1</f>
-        <v>-1</v>
+      <c r="F3">
+        <v>114.3</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H8" si="1">F3/E3-1</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1143</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="2">I3*H3</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -505,15 +533,33 @@
       <c r="C4" s="1">
         <v>43962</v>
       </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D8" si="3">C4+10</f>
+        <v>43972</v>
+      </c>
       <c r="E4">
         <v>1397.9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4">
+        <v>1397.9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1397.9</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -523,15 +569,33 @@
       <c r="C5" s="1">
         <v>43962</v>
       </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>43972</v>
+      </c>
       <c r="E5">
         <v>383.2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5">
+        <v>357.67</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.6623173277661762E-2</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1149.5999999999999</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>-76.589999999999961</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -541,30 +605,102 @@
       <c r="C6" s="1">
         <v>43962</v>
       </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>43972</v>
+      </c>
       <c r="E6">
         <v>108.88</v>
       </c>
-      <c r="G6" s="2">
+      <c r="F6">
+        <v>108.88</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2177.6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>43963</v>
       </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>43973</v>
+      </c>
       <c r="E7">
         <v>324.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="F7">
+        <v>324.5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1947</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43965</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>43975</v>
+      </c>
+      <c r="E8">
+        <v>64.16</v>
+      </c>
+      <c r="F8">
+        <v>64.16</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>E8*G8</f>
+        <v>2951.3599999999997</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8F8D3-B9A5-4564-BC3C-FCC65FC5C7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777FD8D8-27FD-4F5C-B77D-7287904B065F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Stock name</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>shares</t>
+  </si>
+  <si>
+    <t>NWSA</t>
+  </si>
+  <si>
+    <t>NEM</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,8 +504,8 @@
         <v>43962</v>
       </c>
       <c r="D3" s="1">
-        <f>C3+10</f>
-        <v>43972</v>
+        <f>C3+14</f>
+        <v>43976</v>
       </c>
       <c r="E3">
         <v>114.3</v>
@@ -511,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="1">F3/E3-1</f>
+        <f t="shared" ref="H3:H10" si="1">F3/E3-1</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -534,8 +540,8 @@
         <v>43962</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D8" si="3">C4+10</f>
-        <v>43972</v>
+        <f t="shared" ref="D4:D10" si="3">C4+14</f>
+        <v>43976</v>
       </c>
       <c r="E4">
         <v>1397.9</v>
@@ -571,7 +577,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>43972</v>
+        <v>43976</v>
       </c>
       <c r="E5">
         <v>383.2</v>
@@ -607,7 +613,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>43972</v>
+        <v>43976</v>
       </c>
       <c r="E6">
         <v>108.88</v>
@@ -643,7 +649,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="E7">
         <v>324.5</v>
@@ -679,7 +685,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>43975</v>
+        <v>43979</v>
       </c>
       <c r="E8">
         <v>64.16</v>
@@ -701,6 +707,70 @@
       <c r="J8">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43966</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>43980</v>
+      </c>
+      <c r="E9">
+        <v>10.775</v>
+      </c>
+      <c r="F9">
+        <v>10.775</v>
+      </c>
+      <c r="G9">
+        <v>185</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>E9*G9</f>
+        <v>1993.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43966</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>43980</v>
+      </c>
+      <c r="E10">
+        <v>67.745000000000005</v>
+      </c>
+      <c r="F10">
+        <v>67.745000000000005</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>E10*G10</f>
+        <v>1016.1750000000001</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777FD8D8-27FD-4F5C-B77D-7287904B065F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FED0F-5FCC-4D80-9C8C-BC8636D692FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="May" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Stock name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>NEM</t>
+  </si>
+  <si>
+    <t>INTU</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,22 +514,22 @@
         <v>114.3</v>
       </c>
       <c r="F3">
-        <v>114.3</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H10" si="1">F3/E3-1</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H11" si="1">F3/E3-1</f>
+        <v>3.2370953630796118E-2</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="2">I3*H3</f>
-        <v>0</v>
+        <f t="shared" ref="J3:J11" si="2">I3*H3</f>
+        <v>36.999999999999964</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +543,7 @@
         <v>43962</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="3">C4+14</f>
+        <f t="shared" ref="D4:D11" si="3">C4+14</f>
         <v>43976</v>
       </c>
       <c r="E4">
@@ -619,14 +622,14 @@
         <v>108.88</v>
       </c>
       <c r="F6">
-        <v>108.88</v>
+        <v>110.5</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4878765613519418E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -634,7 +637,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32.399999999999885</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,19 +730,23 @@
         <v>10.775</v>
       </c>
       <c r="F9">
-        <v>10.775</v>
+        <v>11.35</v>
       </c>
       <c r="G9">
         <v>185</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3364269141531251E-2</v>
       </c>
       <c r="I9">
         <f>E9*G9</f>
         <v>1993.375</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>106.37499999999986</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -771,6 +778,60 @@
       <c r="I10">
         <f>E10*G10</f>
         <v>1016.1750000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43969</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>43983</v>
+      </c>
+      <c r="E11">
+        <v>290.87</v>
+      </c>
+      <c r="F11">
+        <v>290.87</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>E11*G11</f>
+        <v>2036.0900000000001</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>SUM(I2:I11)</f>
+        <v>16312.099999999999</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J2:J11)</f>
+        <v>474.1849999999996</v>
+      </c>
+      <c r="K36">
+        <f>J36/I36</f>
+        <v>2.9069525076476949E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FED0F-5FCC-4D80-9C8C-BC8636D692FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA809B08-1BD7-4977-882B-CB20BE520576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
+    <sheet name="Jun" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Stock name</t>
   </si>
@@ -97,6 +98,12 @@
   </si>
   <si>
     <t>INTU</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>UBER</t>
   </si>
 </sst>
 </file>
@@ -419,7 +426,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="I36" sqref="I36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H11" si="1">F3/E3-1</f>
+        <f t="shared" ref="H3:H13" si="1">F3/E3-1</f>
         <v>3.2370953630796118E-2</v>
       </c>
       <c r="I3">
@@ -528,7 +535,7 @@
         <v>1143</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="2">I3*H3</f>
+        <f t="shared" ref="J3:J13" si="2">I3*H3</f>
         <v>36.999999999999964</v>
       </c>
     </row>
@@ -543,7 +550,7 @@
         <v>43962</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D11" si="3">C4+14</f>
+        <f t="shared" ref="D4:D13" si="3">C4+14</f>
         <v>43976</v>
       </c>
       <c r="E4">
@@ -655,25 +662,25 @@
         <v>43977</v>
       </c>
       <c r="E7">
-        <v>324.5</v>
+        <v>319.89</v>
       </c>
       <c r="F7">
-        <v>324.5</v>
+        <v>362</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13163900090656178</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1947</v>
+        <v>2879.0099999999998</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>378.99000000000041</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -694,14 +701,14 @@
         <v>64.16</v>
       </c>
       <c r="F8">
-        <v>64.16</v>
+        <v>60.82</v>
       </c>
       <c r="G8">
         <v>46</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.2057356608478766E-2</v>
       </c>
       <c r="I8">
         <f>E8*G8</f>
@@ -709,7 +716,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-153.63999999999987</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -820,18 +827,248 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43970</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>43984</v>
+      </c>
+      <c r="E12">
+        <v>114.5</v>
+      </c>
+      <c r="F12">
+        <v>114.5</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I13" si="4">E12*G12</f>
+        <v>1030.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43970</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="3"/>
+        <v>43984</v>
+      </c>
+      <c r="E13">
+        <v>33.61</v>
+      </c>
+      <c r="F13">
+        <v>33.61</v>
+      </c>
+      <c r="G13">
+        <v>240</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>8066.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36">
-        <f>SUM(I2:I11)</f>
-        <v>16312.099999999999</v>
+        <f>SUM(I2:I35)</f>
+        <v>26341.010000000002</v>
       </c>
       <c r="J36">
-        <f>SUM(J2:J11)</f>
-        <v>474.1849999999996</v>
-      </c>
-      <c r="K36">
+        <f>SUM(J2:J35)</f>
+        <v>699.5350000000002</v>
+      </c>
+      <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>2.9069525076476949E-2</v>
+        <v>2.6556878418860938E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43959</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43963</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.35</v>
+      </c>
+      <c r="G2">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="2">
+        <f>F2/E2-1</f>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">E2*G2</f>
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <f>I2*H2</f>
+        <v>374.99999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>SUM(I2:I35)</f>
+        <v>500</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J2:J35)</f>
+        <v>374.99999999999989</v>
+      </c>
+      <c r="K36" s="2">
+        <f>J36/I36</f>
+        <v>0.74999999999999978</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA809B08-1BD7-4977-882B-CB20BE520576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D295227-1C72-4208-AB40-5B857BD9C488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Stock name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>UBER</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>optioncall</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:K36"/>
+      <selection activeCell="A12" sqref="A12:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H13" si="1">F3/E3-1</f>
+        <f t="shared" ref="H3:H14" si="1">F3/E3-1</f>
         <v>3.2370953630796118E-2</v>
       </c>
       <c r="I3">
@@ -535,7 +541,7 @@
         <v>1143</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="2">I3*H3</f>
+        <f t="shared" ref="J3:J14" si="2">I3*H3</f>
         <v>36.999999999999964</v>
       </c>
     </row>
@@ -550,7 +556,7 @@
         <v>43962</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D13" si="3">C4+14</f>
+        <f t="shared" ref="D4:D14" si="3">C4+14</f>
         <v>43976</v>
       </c>
       <c r="E4">
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I13" si="4">E12*G12</f>
+        <f t="shared" ref="I12:I14" si="4">E12*G12</f>
         <v>1030.5</v>
       </c>
       <c r="J12">
@@ -899,10 +905,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43970</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>43984</v>
+      </c>
+      <c r="E14">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="F14">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>1055</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36">
         <f>SUM(I2:I35)</f>
-        <v>26341.010000000002</v>
+        <v>27396.010000000002</v>
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
@@ -910,7 +952,7 @@
       </c>
       <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>2.6556878418860938E-2</v>
+        <v>2.5534192752886282E-2</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1036,7 @@
         <v>0.74999999999999978</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I7" si="0">E2*G2</f>
+        <f t="shared" ref="I2" si="0">E2*G2</f>
         <v>500</v>
       </c>
       <c r="J2">

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D295227-1C72-4208-AB40-5B857BD9C488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077EF7D-3669-4D02-9BFE-EA47F0FD5681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J14"/>
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,14 +923,14 @@
         <v>5.2750000000000004</v>
       </c>
       <c r="F14">
-        <v>5.2750000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44075829383886234</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
@@ -938,8 +938,13 @@
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>464.99999999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36">
@@ -948,11 +953,11 @@
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
-        <v>699.5350000000002</v>
+        <v>1164.5349999999999</v>
       </c>
       <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>2.5534192752886282E-2</v>
+        <v>4.2507467328271514E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077EF7D-3669-4D02-9BFE-EA47F0FD5681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10646C-2F4F-4E67-8F7B-226270B96B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,14 +779,14 @@
         <v>67.745000000000005</v>
       </c>
       <c r="F10">
-        <v>67.745000000000005</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.3804708834600534E-2</v>
       </c>
       <c r="I10">
         <f>E10*G10</f>
@@ -794,7 +794,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-54.675000000000203</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,11 +953,11 @@
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
-        <v>1164.5349999999999</v>
+        <v>1109.8599999999997</v>
       </c>
       <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>4.2507467328271514E-2</v>
+        <v>4.0511738753197989E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10646C-2F4F-4E67-8F7B-226270B96B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E8C08-BC60-4288-BC2C-0F7C3F0B60FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Stock name</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>optioncall</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>CARR</t>
   </si>
 </sst>
 </file>
@@ -431,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H14" si="1">F3/E3-1</f>
+        <f t="shared" ref="H3:H17" si="1">F3/E3-1</f>
         <v>3.2370953630796118E-2</v>
       </c>
       <c r="I3">
@@ -541,7 +550,7 @@
         <v>1143</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" si="2">I3*H3</f>
+        <f t="shared" ref="J3:J17" si="2">I3*H3</f>
         <v>36.999999999999964</v>
       </c>
     </row>
@@ -556,7 +565,7 @@
         <v>43962</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D14" si="3">C4+14</f>
+        <f t="shared" ref="D4:D17" si="3">C4+14</f>
         <v>43976</v>
       </c>
       <c r="E4">
@@ -671,14 +680,14 @@
         <v>319.89</v>
       </c>
       <c r="F7">
-        <v>362</v>
+        <v>352.5</v>
       </c>
       <c r="G7">
         <v>9</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
-        <v>0.13163900090656178</v>
+        <v>0.10194129231923488</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -686,7 +695,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>378.99000000000041</v>
+        <v>293.49000000000041</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -861,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I14" si="4">E12*G12</f>
+        <f t="shared" ref="I12:I17" si="4">E12*G12</f>
         <v>1030.5</v>
       </c>
       <c r="J12">
@@ -942,22 +951,125 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43972</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>43986</v>
+      </c>
+      <c r="E15">
+        <v>16.975000000000001</v>
+      </c>
+      <c r="F15">
+        <v>16.975000000000001</v>
+      </c>
+      <c r="G15">
+        <v>118</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>2003.0500000000002</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43972</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>43986</v>
+      </c>
+      <c r="E16">
+        <v>35.965000000000003</v>
+      </c>
+      <c r="F16">
+        <v>35.965000000000003</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>1978.0750000000003</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43972</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>43986</v>
+      </c>
+      <c r="E17">
+        <v>19.28</v>
+      </c>
+      <c r="F17">
+        <v>19.28</v>
+      </c>
+      <c r="G17">
+        <v>155</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>2988.4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36">
         <f>SUM(I2:I35)</f>
-        <v>27396.010000000002</v>
+        <v>34365.535000000003</v>
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
-        <v>1109.8599999999997</v>
+        <v>1024.3599999999997</v>
       </c>
       <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>4.0511738753197989E-2</v>
+        <v>2.9807771070638055E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E8C08-BC60-4288-BC2C-0F7C3F0B60FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D378474E-D7A8-4521-AFC1-BA0832F123B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Stock name</t>
   </si>
@@ -119,16 +119,38 @@
   </si>
   <si>
     <t>CARR</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>COTY</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>LNC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,10 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,362 +509,362 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>43959</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>43963</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.35</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>2500</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <f>F2/E2-1</f>
         <v>0.74999999999999978</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I7" si="0">E2*G2</f>
         <v>500</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <f>I2*H2</f>
         <v>374.99999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
         <v>43962</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>C3+14</f>
         <v>43976</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>114.3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>118</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H17" si="1">F3/E3-1</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H18" si="1">F3/E3-1</f>
         <v>3.2370953630796118E-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J17" si="2">I3*H3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J18" si="2">I3*H3</f>
         <v>36.999999999999964</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
         <v>43962</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D17" si="3">C4+14</f>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D18" si="3">C4+14</f>
         <v>43976</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1397.9</v>
       </c>
-      <c r="F4">
-        <v>1397.9</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3">
+        <v>1405</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
+        <v>5.0790471421418015E-3</v>
+      </c>
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>1397.9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1000000000000245</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
         <v>43962</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f t="shared" si="3"/>
         <v>43976</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>383.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>357.67</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>-6.6623173277661762E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>1149.5999999999999</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>-76.589999999999961</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
         <v>43962</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <f t="shared" si="3"/>
         <v>43976</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>108.88</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>110.5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>20</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>1.4878765613519418E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>2177.6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>32.399999999999885</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
         <v>43963</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="3"/>
         <v>43977</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>319.89</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>352.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>9</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>0.10194129231923488</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>2879.0099999999998</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>293.49000000000041</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
         <v>43965</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <f t="shared" si="3"/>
         <v>43979</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>64.16</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>60.82</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>46</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>-5.2057356608478766E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>E8*G8</f>
         <v>2951.3599999999997</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
         <v>-153.63999999999987</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
         <v>43966</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <f t="shared" si="3"/>
         <v>43980</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>10.775</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>11.35</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>185</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>5.3364269141531251E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>E9*G9</f>
         <v>1993.375</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>106.37499999999986</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
         <v>43966</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <f t="shared" si="3"/>
         <v>43980</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>67.745000000000005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>15</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>-5.3804708834600534E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>E10*G10</f>
         <v>1016.1750000000001</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>-54.675000000000203</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
         <v>43969</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <f t="shared" si="3"/>
         <v>43983</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>290.87</v>
       </c>
-      <c r="F11">
-        <v>290.87</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="3">
+        <v>277</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
+        <v>-4.7684532609069352E-2</v>
+      </c>
+      <c r="I11" s="3">
         <f>E11*G11</f>
         <v>2036.0900000000001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-97.090000000000018</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -860,22 +885,22 @@
         <v>114.5</v>
       </c>
       <c r="F12">
-        <v>114.5</v>
+        <v>122</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5502183406113579E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I17" si="4">E12*G12</f>
+        <f t="shared" ref="I12:I18" si="4">E12*G12</f>
         <v>1030.5</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67.500000000000043</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,14 +921,14 @@
         <v>33.61</v>
       </c>
       <c r="F13">
-        <v>33.61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>240</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1603689378161253E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
@@ -911,41 +936,41 @@
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>93.599999999999923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>43970</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <f t="shared" si="3"/>
         <v>43984</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>5.2750000000000004</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>7.6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>0.44075829383886234</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="4"/>
         <v>1055</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>464.99999999999977</v>
       </c>
@@ -968,14 +993,14 @@
         <v>16.975000000000001</v>
       </c>
       <c r="F15">
-        <v>16.975000000000001</v>
+        <v>17.32</v>
       </c>
       <c r="G15">
         <v>118</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0324005891016128E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
@@ -983,7 +1008,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40.709999999999859</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,14 +1029,14 @@
         <v>35.965000000000003</v>
       </c>
       <c r="F16">
-        <v>35.965000000000003</v>
+        <v>37.31</v>
       </c>
       <c r="G16">
         <v>55</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.7397469762268765E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
@@ -1019,7 +1044,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73.974999999999795</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1040,14 +1065,14 @@
         <v>19.28</v>
       </c>
       <c r="F17">
-        <v>19.28</v>
+        <v>20.12</v>
       </c>
       <c r="G17">
         <v>155</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3568464730290524E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
@@ -1055,21 +1080,201 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>130.20000000000022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43972</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="3"/>
+        <v>43986</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22027972027972043</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="4"/>
+        <v>2860</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>630.00000000000045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43977</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C21+14</f>
+        <v>43992</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12.006</v>
+      </c>
+      <c r="F19" s="3">
+        <v>11.87</v>
+      </c>
+      <c r="G19" s="3">
+        <v>250</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" ref="H19:H21" si="5">F19/E19-1</f>
+        <v>-1.1327669498584103E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" ref="I19:I21" si="6">E19*G19</f>
+        <v>3001.5</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" ref="J19:J21" si="7">I19*H19</f>
+        <v>-34.000000000000185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43973</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20+14</f>
+        <v>43987</v>
+      </c>
+      <c r="E20">
+        <v>3.6</v>
+      </c>
+      <c r="F20">
+        <v>4.59</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27499999999999991</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>494.99999999999983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43978</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:D22" si="8">C21+14</f>
+        <v>43992</v>
+      </c>
+      <c r="E21">
+        <v>9.49</v>
+      </c>
+      <c r="F21">
+        <v>9.42</v>
+      </c>
+      <c r="G21">
+        <v>105</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
+        <v>-7.3761854583772601E-3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>996.45</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>-7.350000000000021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43978</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="8"/>
+        <v>43992</v>
+      </c>
+      <c r="E22">
+        <v>40.65</v>
+      </c>
+      <c r="F22">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="G22">
+        <v>75</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22" si="9">F22/E22-1</f>
+        <v>7.3800738007381295E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="10">E22*G22</f>
+        <v>3048.75</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="11">I22*H22</f>
+        <v>22.500000000000373</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36">
         <f>SUM(I2:I35)</f>
-        <v>34365.535000000003</v>
+        <v>46072.235000000001</v>
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
-        <v>1024.3599999999997</v>
+        <v>2446.5050000000001</v>
       </c>
       <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>2.9807771070638055E-2</v>
+        <v>5.3101504626376389E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D378474E-D7A8-4521-AFC1-BA0832F123B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CDD8D5-54C5-40B3-AE54-62AD39572415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Stock name</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>LNC</t>
+  </si>
+  <si>
+    <t>sell date dead line</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -487,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -597,14 +601,14 @@
         <v>1397.9</v>
       </c>
       <c r="F4" s="3">
-        <v>1405</v>
+        <v>1420</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>5.0790471421418015E-3</v>
+        <v>1.5809428428356753E-2</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -612,7 +616,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>7.1000000000000245</v>
+        <v>22.099999999999905</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -867,40 +871,40 @@
         <v>-97.090000000000018</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
         <v>43970</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <f t="shared" si="3"/>
         <v>43984</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>114.5</v>
       </c>
-      <c r="F12">
-        <v>122</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="3">
+        <v>120</v>
+      </c>
+      <c r="G12" s="3">
         <v>9</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>6.5502183406113579E-2</v>
-      </c>
-      <c r="I12">
+        <v>4.8034934497816595E-2</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" ref="I12:I18" si="4">E12*G12</f>
         <v>1030.5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>67.500000000000043</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,14 +925,14 @@
         <v>33.61</v>
       </c>
       <c r="F13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>240</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>1.1603689378161253E-2</v>
+        <v>4.1356739065754322E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
@@ -936,7 +940,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>93.599999999999923</v>
+        <v>333.60000000000065</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -975,40 +979,40 @@
         <v>464.99999999999977</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
         <v>43972</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
-      <c r="E15">
-        <v>16.975000000000001</v>
-      </c>
-      <c r="F15">
-        <v>17.32</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="3">
+        <v>16.97</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15.56</v>
+      </c>
+      <c r="G15" s="3">
         <v>118</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>2.0324005891016128E-2</v>
-      </c>
-      <c r="I15">
+        <v>-8.3087802003535605E-2</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="4"/>
-        <v>2003.0500000000002</v>
-      </c>
-      <c r="J15">
+        <v>2002.4599999999998</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
-        <v>40.709999999999859</v>
+        <v>-166.37999999999988</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1155,76 +1159,76 @@
         <v>-34.000000000000185</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
         <v>43973</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <f>C20+14</f>
         <v>43987</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>3.6</v>
       </c>
-      <c r="F20">
-        <v>4.59</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <f t="shared" si="5"/>
-        <v>0.27499999999999991</v>
-      </c>
-      <c r="I20">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <f t="shared" si="7"/>
-        <v>494.99999999999983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>359.99999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
         <v>43978</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <f t="shared" ref="D21:D22" si="8">C21+14</f>
         <v>43992</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>9.49</v>
       </c>
-      <c r="F21">
-        <v>9.42</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="3">
+        <v>10.28</v>
+      </c>
+      <c r="G21" s="3">
         <v>105</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <f t="shared" si="5"/>
-        <v>-7.3761854583772601E-3</v>
-      </c>
-      <c r="I21">
+        <v>8.3245521601685857E-2</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="6"/>
         <v>996.45</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <f t="shared" si="7"/>
-        <v>-7.350000000000021</v>
+        <v>82.949999999999875</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,15 +1270,15 @@
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36">
         <f>SUM(I2:I35)</f>
-        <v>46072.235000000001</v>
+        <v>46071.644999999997</v>
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
-        <v>2446.5050000000001</v>
+        <v>2431.7150000000006</v>
       </c>
       <c r="K36" s="2">
         <f>J36/I36</f>
-        <v>5.3101504626376389E-2</v>
+        <v>5.2781162903994434E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CDD8D5-54C5-40B3-AE54-62AD39572415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5073AD56-0B91-4343-B689-243827F7F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Stock name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>buy date</t>
   </si>
   <si>
-    <t>sell date</t>
-  </si>
-  <si>
     <t>Portfolios</t>
   </si>
   <si>
@@ -137,13 +134,25 @@
   </si>
   <si>
     <t>sell date dead line</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>VRSK</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +163,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,13 +194,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,780 +508,780 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>43959</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43963</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.35</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>2500</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>F2/E2-1</f>
         <v>0.74999999999999978</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I7" si="0">E2*G2</f>
         <v>500</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f>I2*H2</f>
         <v>374.99999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>43962</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>C3+14</f>
         <v>43976</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>114.3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>118</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H18" si="1">F3/E3-1</f>
         <v>3.2370953630796118E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J18" si="2">I3*H3</f>
         <v>36.999999999999964</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>43962</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D18" si="3">C4+14</f>
         <v>43976</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1397.9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1420</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>1.5809428428356753E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>1397.9</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
         <v>22.099999999999905</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>43962</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="3"/>
         <v>43976</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>383.2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>357.67</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>-6.6623173277661762E-2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>1149.5999999999999</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>-76.589999999999961</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
         <v>43962</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="3"/>
         <v>43976</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>108.88</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>110.5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>1.4878765613519418E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>2177.6</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>32.399999999999885</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>43963</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="3"/>
         <v>43977</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>319.89</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>352.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>0.10194129231923488</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>2879.0099999999998</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>293.49000000000041</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>43965</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="3"/>
         <v>43979</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>64.16</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>60.82</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>46</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>-5.2057356608478766E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f>E8*G8</f>
         <v>2951.3599999999997</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>-153.63999999999987</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>43966</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="3"/>
         <v>43980</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>10.775</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>11.35</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>185</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>5.3364269141531251E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f>E9*G9</f>
         <v>1993.375</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>106.37499999999986</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>43966</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="3"/>
         <v>43980</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>67.745000000000005</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>64.099999999999994</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>15</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>-5.3804708834600534E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f>E10*G10</f>
         <v>1016.1750000000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
         <v>-54.675000000000203</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
         <v>43969</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="3"/>
         <v>43983</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>290.87</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>277</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>-4.7684532609069352E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f>E11*G11</f>
         <v>2036.0900000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
         <v>-97.090000000000018</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>43970</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="3"/>
         <v>43984</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>114.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>120</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>9</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>4.8034934497816595E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" ref="I12:I18" si="4">E12*G12</f>
         <v>1030.5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="2"/>
         <v>49.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>43970</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" si="3"/>
         <v>43984</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>33.61</v>
       </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G13" s="2">
         <v>240</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1356739065754322E-2</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5406129128235486E-2</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="4"/>
         <v>8066.4</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>333.60000000000065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>285.59999999999872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>43970</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="3"/>
         <v>43984</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>5.2750000000000004</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>7.6</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>200</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>0.44075829383886234</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
         <v>1055</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="2"/>
         <v>464.99999999999977</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
         <v>43972</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>16.97</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>15.56</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>118</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>-8.3087802003535605E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="4"/>
         <v>2002.4599999999998</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="2"/>
         <v>-166.37999999999988</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
         <v>43972</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>35.965000000000003</v>
       </c>
-      <c r="F16">
-        <v>37.31</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="G16" s="2">
         <v>55</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>3.7397469762268765E-2</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.4348672320311588E-2</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="4"/>
         <v>1978.0750000000003</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>73.974999999999795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>-87.725000000000364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
         <v>43972</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>19.28</v>
       </c>
-      <c r="F17">
-        <v>20.12</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
         <v>155</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3568464730290524E-2</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>3.734439834024883E-2</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="4"/>
         <v>2988.4</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>130.20000000000022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>111.59999999999961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3">
         <v>43972</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>2.86</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>3.49</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>1000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
         <v>0.22027972027972043</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="4"/>
         <v>2860</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="2"/>
         <v>630.00000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>43977</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f>C21+14</f>
         <v>43992</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>12.006</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>11.87</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>250</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="shared" ref="H19:H21" si="5">F19/E19-1</f>
         <v>-1.1327669498584103E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" ref="I19:I21" si="6">E19*G19</f>
         <v>3001.5</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" ref="J19:J21" si="7">I19*H19</f>
         <v>-34.000000000000185</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
         <v>43973</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f>C20+14</f>
         <v>43987</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>3.6</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>4.32</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>500</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="7"/>
         <v>359.99999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
         <v>43978</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" ref="D21:D22" si="8">C21+14</f>
         <v>43992</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>9.49</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>10.28</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>105</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="shared" si="5"/>
         <v>8.3245521601685857E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="6"/>
         <v>996.45</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="7"/>
         <v>82.949999999999875</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
         <v>43978</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <f t="shared" si="8"/>
         <v>43992</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>40.65</v>
       </c>
-      <c r="F22">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="G22" s="2">
         <v>75</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <f t="shared" ref="H22" si="9">F22/E22-1</f>
-        <v>7.3800738007381295E-3</v>
-      </c>
-      <c r="I22">
+        <v>-6.273062730627299E-2</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" ref="I22" si="10">E22*G22</f>
         <v>3048.75</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f t="shared" ref="J22" si="11">I22*H22</f>
-        <v>22.500000000000373</v>
+        <v>-191.24999999999977</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
@@ -1274,11 +1291,11 @@
       </c>
       <c r="J36">
         <f>SUM(J2:J35)</f>
-        <v>2431.7150000000006</v>
-      </c>
-      <c r="K36" s="2">
+        <v>1989.6649999999979</v>
+      </c>
+      <c r="K36" s="1">
         <f>J36/I36</f>
-        <v>5.2781162903994434E-2</v>
+        <v>4.3186324256492208E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1292,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,140 +1320,230 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43959</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43963</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
-        <v>0.35</v>
-      </c>
-      <c r="G2">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="2">
-        <f>F2/E2-1</f>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2" si="0">E2*G2</f>
-        <v>500</v>
-      </c>
-      <c r="J2">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43983</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D6" si="0">C2+14</f>
+        <v>43997</v>
+      </c>
+      <c r="E2" s="5">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F2" s="5">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G2" s="5">
+        <v>240</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H6" si="1">F2/E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I6" si="2">E2*G2</f>
+        <v>8352</v>
+      </c>
+      <c r="J2" s="5">
         <f>I2*H2</f>
-        <v>374.99999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36">
-        <f>SUM(I2:I35)</f>
-        <v>500</v>
-      </c>
-      <c r="J36">
-        <f>SUM(J2:J35)</f>
-        <v>374.99999999999989</v>
-      </c>
-      <c r="K36" s="2">
-        <f>J36/I36</f>
-        <v>0.74999999999999978</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43983</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>43997</v>
+      </c>
+      <c r="E3">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="F3">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="2"/>
+        <v>3864.0000000000005</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43983</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>43997</v>
+      </c>
+      <c r="E4">
+        <v>88.4</v>
+      </c>
+      <c r="F4">
+        <v>88.4</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="2"/>
+        <v>2475.2000000000003</v>
+      </c>
+      <c r="J4" s="5">
+        <f>I4*H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43983</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>43997</v>
+      </c>
+      <c r="E5">
+        <v>169.97</v>
+      </c>
+      <c r="F5">
+        <v>169.97</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>4249.25</v>
+      </c>
+      <c r="J5" s="5">
+        <f>I5*H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43983</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>43997</v>
+      </c>
+      <c r="E6">
+        <v>48.7</v>
+      </c>
+      <c r="F6">
+        <v>48.7</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>3409</v>
+      </c>
+      <c r="J6" s="5">
+        <f>I6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f>SUM(I1:I15)</f>
+        <v>22349.45</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J1:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f>J16/I16</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5073AD56-0B91-4343-B689-243827F7F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764A977-81BD-4D62-9DF1-B7273017562C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Stock name</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>DFS</t>
+  </si>
+  <si>
+    <t>WM</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1315,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1366,7 @@
         <v>43983</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D6" si="0">C2+14</f>
+        <f t="shared" ref="D2:D7" si="0">C2+14</f>
         <v>43997</v>
       </c>
       <c r="E2" s="5">
@@ -1376,11 +1379,11 @@
         <v>240</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H6" si="1">F2/E2-1</f>
+        <f t="shared" ref="H2:H7" si="1">F2/E2-1</f>
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="2">E2*G2</f>
+        <f t="shared" ref="I2:I7" si="2">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="5">
@@ -1528,14 +1531,50 @@
         <v>3409</v>
       </c>
       <c r="J6" s="5">
-        <f>I6*H6</f>
+        <f t="shared" ref="J6:J7" si="3">I6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43983</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>43997</v>
+      </c>
+      <c r="E7">
+        <v>106.64</v>
+      </c>
+      <c r="F7">
+        <v>106.64</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>3199.2</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16">
         <f>SUM(I1:I15)</f>
-        <v>22349.45</v>
+        <v>25548.65</v>
       </c>
       <c r="J16">
         <f>SUM(J1:J15)</f>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764A977-81BD-4D62-9DF1-B7273017562C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6852712-51E9-4304-B85C-B6B1E2933E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Stock name</t>
   </si>
@@ -133,9 +133,6 @@
     <t>LNC</t>
   </si>
   <si>
-    <t>sell date dead line</t>
-  </si>
-  <si>
     <t>AMT</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   </si>
   <si>
     <t>WM</t>
+  </si>
+  <si>
+    <t>IPGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell date </t>
+  </si>
+  <si>
+    <t>sell date</t>
+  </si>
+  <si>
+    <t>ABMD</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,6 +215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -1315,12 +1325,13 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1334,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
@@ -1365,35 +1376,32 @@
       <c r="C2" s="6">
         <v>43983</v>
       </c>
-      <c r="D2" s="6">
-        <f t="shared" ref="D2:D7" si="0">C2+14</f>
-        <v>43997</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="5">
         <v>34.799999999999997</v>
       </c>
       <c r="F2" s="5">
-        <v>34.799999999999997</v>
+        <v>35.58</v>
       </c>
       <c r="G2" s="5">
         <v>240</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H7" si="1">F2/E2-1</f>
-        <v>0</v>
+        <f t="shared" ref="H2:H10" si="0">F2/E2-1</f>
+        <v>2.2413793103448265E-2</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I7" si="2">E2*G2</f>
+        <f t="shared" ref="I2:I10" si="1">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="5">
         <f>I2*H2</f>
-        <v>0</v>
+        <v>187.1999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1401,35 +1409,32 @@
       <c r="C3" s="6">
         <v>43983</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" si="0"/>
-        <v>43997</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3">
         <v>257.60000000000002</v>
       </c>
       <c r="F3">
-        <v>257.60000000000002</v>
+        <v>262.04000000000002</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.7236024844720532E-2</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3864.0000000000005</v>
       </c>
       <c r="J3" s="5">
         <f>I3*H3</f>
-        <v>0</v>
+        <v>66.600000000000151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1437,35 +1442,32 @@
       <c r="C4" s="6">
         <v>43983</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>43997</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4">
         <v>88.4</v>
       </c>
       <c r="F4">
-        <v>88.4</v>
+        <v>90.92</v>
       </c>
       <c r="G4">
         <v>28</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.8506787330316641E-2</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2475.2000000000003</v>
       </c>
       <c r="J4" s="5">
         <f>I4*H4</f>
-        <v>0</v>
+        <v>70.559999999999761</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1473,35 +1475,32 @@
       <c r="C5" s="6">
         <v>43983</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>43997</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5">
         <v>169.97</v>
       </c>
       <c r="F5">
-        <v>169.97</v>
+        <v>170.43</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7063599458727605E-3</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4249.25</v>
       </c>
       <c r="J5" s="5">
         <f>I5*H5</f>
-        <v>0</v>
+        <v>11.499999999999828</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1509,35 +1508,32 @@
       <c r="C6" s="6">
         <v>43983</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>43997</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6">
         <v>48.7</v>
       </c>
       <c r="F6">
-        <v>48.7</v>
+        <v>52.14</v>
       </c>
       <c r="G6">
         <v>70</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.0636550308008195E-2</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3409</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J7" si="3">I6*H6</f>
-        <v>0</v>
+        <f t="shared" ref="J6:J10" si="2">I6*H6</f>
+        <v>240.79999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1545,44 +1541,138 @@
       <c r="C7" s="6">
         <v>43983</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>43997</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7">
         <v>106.64</v>
       </c>
       <c r="F7">
-        <v>106.64</v>
+        <v>106.95</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>2.9069767441860517E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>3199.2</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>9.3000000000000167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43984</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="F8">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>-3.0731407498463481E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>1464.3</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>-45.000000000000071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43984</v>
+      </c>
+      <c r="E9">
+        <v>120.73</v>
+      </c>
+      <c r="F9">
+        <v>119.9</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>-6.8748446947733965E-3</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>1569.49</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>-10.789999999999898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43984</v>
+      </c>
+      <c r="E10">
+        <v>229.27</v>
+      </c>
+      <c r="F10">
+        <v>229.27</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>3199.2</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="3"/>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>2063.4300000000003</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16">
         <f>SUM(I1:I15)</f>
-        <v>25548.65</v>
+        <v>30645.870000000003</v>
       </c>
       <c r="J16">
         <f>SUM(J1:J15)</f>
-        <v>0</v>
+        <v>530.16999999999973</v>
       </c>
       <c r="K16" s="1">
         <f>J16/I16</f>
-        <v>0</v>
+        <v>1.7299884127942842E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6852712-51E9-4304-B85C-B6B1E2933E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC34D41-B04D-443C-B53F-A703AFEE1B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,14 +1381,14 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F2" s="5">
-        <v>35.58</v>
+        <v>35.81</v>
       </c>
       <c r="G2" s="5">
         <v>240</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H10" si="0">F2/E2-1</f>
-        <v>2.2413793103448265E-2</v>
+        <v>2.902298850574736E-2</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I10" si="1">E2*G2</f>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="J2" s="5">
         <f>I2*H2</f>
-        <v>187.1999999999999</v>
+        <v>242.40000000000197</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,14 +1414,14 @@
         <v>257.60000000000002</v>
       </c>
       <c r="F3">
-        <v>262.04000000000002</v>
+        <v>263.58999999999997</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>1.7236024844720532E-2</v>
+        <v>2.3253105590061995E-2</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="1"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J3" s="5">
         <f>I3*H3</f>
-        <v>66.600000000000151</v>
+        <v>89.849999999999554</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1447,14 +1447,14 @@
         <v>88.4</v>
       </c>
       <c r="F4">
-        <v>90.92</v>
+        <v>92.38</v>
       </c>
       <c r="G4">
         <v>28</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>2.8506787330316641E-2</v>
+        <v>4.502262443438898E-2</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="1"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="J4" s="5">
         <f>I4*H4</f>
-        <v>70.559999999999761</v>
+        <v>111.43999999999961</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1480,14 +1480,14 @@
         <v>169.97</v>
       </c>
       <c r="F5">
-        <v>170.43</v>
+        <v>170.96</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>2.7063599458727605E-3</v>
+        <v>5.8245572748132357E-3</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="J5" s="5">
         <f>I5*H5</f>
-        <v>11.499999999999828</v>
+        <v>24.750000000000142</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1513,14 +1513,14 @@
         <v>48.7</v>
       </c>
       <c r="F6">
-        <v>52.14</v>
+        <v>52.39</v>
       </c>
       <c r="G6">
         <v>70</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>7.0636550308008195E-2</v>
+        <v>7.5770020533880933E-2</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="1"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J10" si="2">I6*H6</f>
-        <v>240.79999999999993</v>
+        <v>258.30000000000013</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1546,14 +1546,14 @@
         <v>106.64</v>
       </c>
       <c r="F7">
-        <v>106.95</v>
+        <v>107.43</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>2.9069767441860517E-3</v>
+        <v>7.4081020255063468E-3</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>9.3000000000000167</v>
+        <v>23.699999999999903</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,14 +1579,14 @@
         <v>162.69999999999999</v>
       </c>
       <c r="F8">
-        <v>157.69999999999999</v>
+        <v>159.88999999999999</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>-3.0731407498463481E-2</v>
+        <v>-1.7271051014136507E-2</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="2"/>
-        <v>-45.000000000000071</v>
+        <v>-25.290000000000088</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,14 +1611,14 @@
         <v>120.73</v>
       </c>
       <c r="F9">
-        <v>119.9</v>
+        <v>123.77</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>-6.8748446947733965E-3</v>
+        <v>2.5180154062784732E-2</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>-10.789999999999898</v>
+        <v>39.52000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,14 +1643,14 @@
         <v>229.27</v>
       </c>
       <c r="F10">
-        <v>229.27</v>
+        <v>230.66</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0627208095258567E-3</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.509999999999939</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="J16">
         <f>SUM(J1:J15)</f>
-        <v>530.16999999999973</v>
+        <v>777.1800000000012</v>
       </c>
       <c r="K16" s="1">
         <f>J16/I16</f>
-        <v>1.7299884127942842E-2</v>
+        <v>2.5360024042391394E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC34D41-B04D-443C-B53F-A703AFEE1B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C84DF9-D4AA-410C-8DDD-3E4D3CB2E939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Stock name</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>ABMD</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>PAYC</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1331,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K16"/>
+      <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,22 +1387,22 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F2" s="5">
-        <v>35.81</v>
+        <v>36.6</v>
       </c>
       <c r="G2" s="5">
         <v>240</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H10" si="0">F2/E2-1</f>
-        <v>2.902298850574736E-2</v>
+        <f t="shared" ref="H2:H12" si="0">F2/E2-1</f>
+        <v>5.1724137931034697E-2</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I10" si="1">E2*G2</f>
+        <f t="shared" ref="I2:I12" si="1">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="5">
         <f>I2*H2</f>
-        <v>242.40000000000197</v>
+        <v>432.00000000000182</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,14 +1420,14 @@
         <v>257.60000000000002</v>
       </c>
       <c r="F3">
-        <v>263.58999999999997</v>
+        <v>265.16000000000003</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>2.3253105590061995E-2</v>
+        <v>2.934782608695663E-2</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="1"/>
@@ -1429,7 +1435,7 @@
       </c>
       <c r="J3" s="5">
         <f>I3*H3</f>
-        <v>89.849999999999554</v>
+        <v>113.40000000000043</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1447,14 +1453,14 @@
         <v>88.4</v>
       </c>
       <c r="F4">
-        <v>92.38</v>
+        <v>92.46</v>
       </c>
       <c r="G4">
         <v>28</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>4.502262443438898E-2</v>
+        <v>4.5927601809954588E-2</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="1"/>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="J4" s="5">
         <f>I4*H4</f>
-        <v>111.43999999999961</v>
+        <v>113.67999999999961</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1480,14 +1486,14 @@
         <v>169.97</v>
       </c>
       <c r="F5">
-        <v>170.96</v>
+        <v>171.42</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>5.8245572748132357E-3</v>
+        <v>8.5309172206859962E-3</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="J5" s="5">
         <f>I5*H5</f>
-        <v>24.750000000000142</v>
+        <v>36.249999999999972</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1513,22 +1519,22 @@
         <v>48.7</v>
       </c>
       <c r="F6">
-        <v>52.39</v>
+        <v>55.27</v>
       </c>
       <c r="G6">
         <v>70</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>7.5770020533880933E-2</v>
+        <v>0.1349075975359344</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>3409</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J10" si="2">I6*H6</f>
-        <v>258.30000000000013</v>
+        <f t="shared" ref="J6:J12" si="2">I6*H6</f>
+        <v>459.90000000000038</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1546,14 +1552,14 @@
         <v>106.64</v>
       </c>
       <c r="F7">
-        <v>107.43</v>
+        <v>109.08</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>7.4081020255063468E-3</v>
+        <v>2.2880720180044944E-2</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
@@ -1561,7 +1567,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>23.699999999999903</v>
+        <v>73.199999999999775</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,14 +1585,14 @@
         <v>162.69999999999999</v>
       </c>
       <c r="F8">
-        <v>159.88999999999999</v>
+        <v>162.4</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>-1.7271051014136507E-2</v>
+        <v>-1.8438844499076845E-3</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
@@ -1594,7 +1600,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="2"/>
-        <v>-25.290000000000088</v>
+        <v>-2.6999999999998225</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,14 +1617,14 @@
         <v>120.73</v>
       </c>
       <c r="F9">
-        <v>123.77</v>
+        <v>126.81</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>2.5180154062784732E-2</v>
+        <v>5.0360308125569464E-2</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
@@ -1626,7 +1632,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>39.52000000000001</v>
+        <v>79.04000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,14 +1649,14 @@
         <v>229.27</v>
       </c>
       <c r="F10">
-        <v>230.66</v>
+        <v>236</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>6.0627208095258567E-3</v>
+        <v>2.9354036725258492E-2</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
@@ -1658,21 +1664,85 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="2"/>
-        <v>12.509999999999939</v>
+        <v>60.570000000000142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43985</v>
+      </c>
+      <c r="E11">
+        <v>46.11</v>
+      </c>
+      <c r="F11">
+        <v>45.9</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>-4.5543266102797686E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>2997.15</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>-13.650000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43985</v>
+      </c>
+      <c r="E12">
+        <v>307.08</v>
+      </c>
+      <c r="F12">
+        <v>307.36</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>9.1181451087685161E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>3070.7999999999997</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>2.8000000000006358</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16">
         <f>SUM(I1:I15)</f>
-        <v>30645.870000000003</v>
+        <v>36713.820000000007</v>
       </c>
       <c r="J16">
         <f>SUM(J1:J15)</f>
-        <v>777.1800000000012</v>
+        <v>1354.490000000003</v>
       </c>
       <c r="K16" s="1">
         <f>J16/I16</f>
-        <v>2.5360024042391394E-2</v>
+        <v>3.6893191719085693E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C84DF9-D4AA-410C-8DDD-3E4D3CB2E939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E493D-DA07-47F7-9599-5F2BB0B3558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>Stock name</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>PAYC</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1343,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+      <selection sqref="A1:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,14 +1399,14 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F2" s="5">
-        <v>36.6</v>
+        <v>36.82</v>
       </c>
       <c r="G2" s="5">
         <v>240</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H12" si="0">F2/E2-1</f>
-        <v>5.1724137931034697E-2</v>
+        <v>5.8045977011494276E-2</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I12" si="1">E2*G2</f>
@@ -1402,7 +1414,7 @@
       </c>
       <c r="J2" s="5">
         <f>I2*H2</f>
-        <v>432.00000000000182</v>
+        <v>484.80000000000018</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1420,14 +1432,14 @@
         <v>257.60000000000002</v>
       </c>
       <c r="F3">
-        <v>265.16000000000003</v>
+        <v>267.77</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>2.934782608695663E-2</v>
+        <v>3.9479813664596186E-2</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="1"/>
@@ -1435,7 +1447,7 @@
       </c>
       <c r="J3" s="5">
         <f>I3*H3</f>
-        <v>113.40000000000043</v>
+        <v>152.54999999999967</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1453,14 +1465,14 @@
         <v>88.4</v>
       </c>
       <c r="F4">
-        <v>92.46</v>
+        <v>93.215000000000003</v>
       </c>
       <c r="G4">
         <v>28</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>4.5927601809954588E-2</v>
+        <v>5.4468325791855232E-2</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="1"/>
@@ -1468,7 +1480,7 @@
       </c>
       <c r="J4" s="5">
         <f>I4*H4</f>
-        <v>113.67999999999961</v>
+        <v>134.82000000000008</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,14 +1498,14 @@
         <v>169.97</v>
       </c>
       <c r="F5">
-        <v>171.42</v>
+        <v>170.65</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>8.5309172206859962E-3</v>
+        <v>4.0007060069424671E-3</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
@@ -1501,7 +1513,7 @@
       </c>
       <c r="J5" s="5">
         <f>I5*H5</f>
-        <v>36.249999999999972</v>
+        <v>17.000000000000277</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1519,14 +1531,14 @@
         <v>48.7</v>
       </c>
       <c r="F6">
-        <v>55.27</v>
+        <v>57.204999999999998</v>
       </c>
       <c r="G6">
         <v>70</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>0.1349075975359344</v>
+        <v>0.17464065708418874</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="1"/>
@@ -1534,7 +1546,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J12" si="2">I6*H6</f>
-        <v>459.90000000000038</v>
+        <v>595.34999999999945</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1552,14 +1564,14 @@
         <v>106.64</v>
       </c>
       <c r="F7">
-        <v>109.08</v>
+        <v>110.55</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>2.2880720180044944E-2</v>
+        <v>3.6665416354088487E-2</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
@@ -1567,7 +1579,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>73.199999999999775</v>
+        <v>117.29999999999988</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1585,14 +1597,14 @@
         <v>162.69999999999999</v>
       </c>
       <c r="F8">
-        <v>162.4</v>
+        <v>163.03</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>-1.8438844499076845E-3</v>
+        <v>2.0282728948985973E-3</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
@@ -1600,7 +1612,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="2"/>
-        <v>-2.6999999999998225</v>
+        <v>2.9700000000000157</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1617,14 +1629,14 @@
         <v>120.73</v>
       </c>
       <c r="F9">
-        <v>126.81</v>
+        <v>127.69</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>5.0360308125569464E-2</v>
+        <v>5.7649300091112243E-2</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
@@ -1632,7 +1644,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>79.04000000000002</v>
+        <v>90.479999999999748</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1649,14 +1661,14 @@
         <v>229.27</v>
       </c>
       <c r="F10">
-        <v>236</v>
+        <v>238.9</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>2.9354036725258492E-2</v>
+        <v>4.2002878701967061E-2</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
@@ -1664,7 +1676,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="2"/>
-        <v>60.570000000000142</v>
+        <v>86.669999999999902</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1681,14 +1693,14 @@
         <v>46.11</v>
       </c>
       <c r="F11">
-        <v>45.9</v>
+        <v>47.82</v>
       </c>
       <c r="G11">
         <v>65</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>-4.5543266102797686E-3</v>
+        <v>3.7085230969420957E-2</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
@@ -1696,7 +1708,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="2"/>
-        <v>-13.650000000000009</v>
+        <v>111.15000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1713,14 +1725,14 @@
         <v>307.08</v>
       </c>
       <c r="F12">
-        <v>307.36</v>
+        <v>307.32</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>9.1181451087685161E-4</v>
+        <v>7.8155529503720622E-4</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
@@ -1728,7 +1740,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" si="2"/>
-        <v>2.8000000000006358</v>
+        <v>2.4000000000002526</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,11 +1750,11 @@
       </c>
       <c r="J16">
         <f>SUM(J1:J15)</f>
-        <v>1354.490000000003</v>
+        <v>1795.4899999999996</v>
       </c>
       <c r="K16" s="1">
         <f>J16/I16</f>
-        <v>3.6893191719085693E-2</v>
+        <v>4.8905017238740051E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E493D-DA07-47F7-9599-5F2BB0B3558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8B0DF-05BA-4BD5-8B76-7C4C0B42E0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="Jun" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Jun!$D$1:$D$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>Stock name</t>
   </si>
@@ -166,16 +169,16 @@
     <t>PAYC</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>OKE</t>
+  </si>
+  <si>
+    <t>SYF</t>
+  </si>
+  <si>
+    <t>PEAK</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,11 +1408,11 @@
         <v>240</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H12" si="0">F2/E2-1</f>
+        <f t="shared" ref="H2:H16" si="0">F2/E2-1</f>
         <v>5.8045977011494276E-2</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I12" si="1">E2*G2</f>
+        <f t="shared" ref="I2:I16" si="1">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="5">
@@ -1450,37 +1453,39 @@
         <v>152.54999999999967</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>43983</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>43986</v>
+      </c>
+      <c r="E4" s="2">
         <v>88.4</v>
       </c>
-      <c r="F4">
-        <v>93.215000000000003</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2">
+        <v>92.05</v>
+      </c>
+      <c r="G4" s="2">
         <v>28</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>5.4468325791855232E-2</v>
-      </c>
-      <c r="I4" s="5">
+        <v>4.1289592760180849E-2</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>2475.2000000000003</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <f>I4*H4</f>
-        <v>134.82000000000008</v>
+        <v>102.19999999999965</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1516,37 +1521,39 @@
         <v>17.000000000000277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
         <v>43983</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>43986</v>
+      </c>
+      <c r="E6" s="2">
         <v>48.7</v>
       </c>
-      <c r="F6">
-        <v>57.204999999999998</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="G6" s="2">
         <v>70</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0.17464065708418874</v>
-      </c>
-      <c r="I6" s="5">
+        <v>0.15400410677618059</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>3409</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" ref="J6:J12" si="2">I6*H6</f>
-        <v>595.34999999999945</v>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J16" si="2">I6*H6</f>
+        <v>524.99999999999966</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1564,14 +1571,14 @@
         <v>106.64</v>
       </c>
       <c r="F7">
-        <v>110.55</v>
+        <v>108.9</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>3.6665416354088487E-2</v>
+        <v>2.1192798199549889E-2</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
@@ -1579,40 +1586,42 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>117.29999999999988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>43984</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>43986</v>
+      </c>
+      <c r="E8" s="2">
         <v>162.69999999999999</v>
       </c>
-      <c r="F8">
-        <v>163.03</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>160.4</v>
+      </c>
+      <c r="G8" s="2">
         <v>9</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0282728948985973E-3</v>
-      </c>
-      <c r="I8" s="5">
+        <v>-1.4136447449293099E-2</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>1464.3</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9700000000000157</v>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>-20.699999999999886</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1647,36 +1656,39 @@
         <v>90.479999999999748</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>43984</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>43986</v>
+      </c>
+      <c r="E10" s="2">
         <v>229.27</v>
       </c>
-      <c r="F10">
-        <v>238.9</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>234</v>
+      </c>
+      <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>4.2002878701967061E-2</v>
-      </c>
-      <c r="I10" s="5">
+        <v>2.0630697430976452E-2</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>2063.4300000000003</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>86.669999999999902</v>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>42.569999999999744</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1725,14 +1737,14 @@
         <v>307.08</v>
       </c>
       <c r="F12">
-        <v>307.32</v>
+        <v>305</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>7.8155529503720622E-4</v>
+        <v>-6.7734792236550101E-3</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
@@ -1740,24 +1752,154 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" si="2"/>
-        <v>2.4000000000002526</v>
+        <v>-20.799999999999802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43986</v>
+      </c>
+      <c r="E13">
+        <v>57.847000000000001</v>
+      </c>
+      <c r="F13">
+        <v>58.35</v>
+      </c>
+      <c r="G13">
+        <v>69</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6953515307621743E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>3991.4430000000002</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>34.706999999999965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43986</v>
+      </c>
+      <c r="E14">
+        <v>40.26</v>
+      </c>
+      <c r="F14">
+        <v>40.26</v>
+      </c>
+      <c r="G14">
+        <v>125</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>5032.5</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43986</v>
+      </c>
+      <c r="E15">
+        <v>23.93</v>
+      </c>
+      <c r="F15">
+        <v>24.04</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5967404931048783E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>1914.4</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>8.7999999999999794</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I16">
-        <f>SUM(I1:I15)</f>
-        <v>36713.820000000007</v>
-      </c>
-      <c r="J16">
-        <f>SUM(J1:J15)</f>
-        <v>1795.4899999999996</v>
-      </c>
-      <c r="K16" s="1">
-        <f>J16/I16</f>
-        <v>4.8905017238740051E-2</v>
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43986</v>
+      </c>
+      <c r="E16">
+        <v>27.67</v>
+      </c>
+      <c r="F16">
+        <v>27.67</v>
+      </c>
+      <c r="G16">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>3818.46</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>SUM(I2:I26)</f>
+        <v>51470.623000000007</v>
+      </c>
+      <c r="J27">
+        <f>SUM(J2:J26)</f>
+        <v>1595.5569999999991</v>
+      </c>
+      <c r="K27" s="1">
+        <f>J27/I27</f>
+        <v>3.0999372204995438E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D27" xr:uid="{C1CC63B3-E6BD-4094-A33F-BF4AC7E2D1F3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8B0DF-05BA-4BD5-8B76-7C4C0B42E0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618BD9C8-7B0C-482C-B6A3-4F4D6F8DB3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>Stock name</t>
   </si>
@@ -179,12 +179,24 @@
   </si>
   <si>
     <t>PEAK</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>Curr K</t>
+  </si>
+  <si>
+    <t>NCLH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,6 +249,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1400,9 @@
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1408,17 +1425,20 @@
         <v>240</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H16" si="0">F2/E2-1</f>
+        <f t="shared" ref="H2:H18" si="0">F2/E2-1</f>
         <v>5.8045977011494276E-2</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I16" si="1">E2*G2</f>
+        <f t="shared" ref="I2:I18" si="1">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="5">
         <f>I2*H2</f>
         <v>484.80000000000018</v>
       </c>
+      <c r="K2" s="9">
+        <v>0.36696700330661303</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1452,6 +1472,9 @@
         <f>I3*H3</f>
         <v>152.54999999999967</v>
       </c>
+      <c r="K3" s="9">
+        <v>0.19891274030210199</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1487,6 +1510,7 @@
         <f>I4*H4</f>
         <v>102.19999999999965</v>
       </c>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1520,6 +1544,9 @@
         <f>I5*H5</f>
         <v>17.000000000000277</v>
       </c>
+      <c r="K5" s="9">
+        <v>0.169933070473095</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1552,9 +1579,10 @@
         <v>3409</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J16" si="2">I6*H6</f>
+        <f t="shared" ref="J6:J18" si="2">I6*H6</f>
         <v>524.99999999999966</v>
       </c>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1588,6 +1616,9 @@
         <f t="shared" si="2"/>
         <v>67.8</v>
       </c>
+      <c r="K7" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1623,6 +1654,7 @@
         <f t="shared" si="2"/>
         <v>-20.699999999999886</v>
       </c>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1655,6 +1687,9 @@
         <f t="shared" si="2"/>
         <v>90.479999999999748</v>
       </c>
+      <c r="K9" s="9">
+        <v>0.71087546324381601</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1690,6 +1725,7 @@
         <f t="shared" si="2"/>
         <v>42.569999999999744</v>
       </c>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1722,38 +1758,45 @@
         <f t="shared" si="2"/>
         <v>111.15000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K11" s="9">
+        <v>0.78323743729126005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>43985</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>43986</v>
+      </c>
+      <c r="E12" s="2">
         <v>307.08</v>
       </c>
-      <c r="F12">
-        <v>305</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>-6.7734792236550101E-3</v>
-      </c>
-      <c r="I12" s="5">
+        <v>-2.5986713559984276E-2</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>3070.7999999999997</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>-20.799999999999802</v>
-      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>-79.799999999999713</v>
+      </c>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1786,6 +1829,9 @@
         <f t="shared" si="2"/>
         <v>34.706999999999965</v>
       </c>
+      <c r="K13" s="9">
+        <v>0.73391047114524899</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1818,6 +1864,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K14" s="9">
+        <v>0.78245904834329505</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1850,6 +1899,9 @@
         <f t="shared" si="2"/>
         <v>8.7999999999999794</v>
       </c>
+      <c r="K15" s="9">
+        <v>0.75360364093471499</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1882,20 +1934,92 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="9">
+        <v>0.70526740092075701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8">
+        <v>43986</v>
+      </c>
+      <c r="E17">
+        <v>10.3</v>
+      </c>
+      <c r="F17">
+        <v>10.3</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>3090</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.84961032389507796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43987</v>
+      </c>
+      <c r="E18">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="F18">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="G18">
+        <v>155</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
+        <v>2996.9250000000002</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.81827502857311596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27">
         <f>SUM(I2:I26)</f>
-        <v>51470.623000000007</v>
+        <v>57557.54800000001</v>
       </c>
       <c r="J27">
         <f>SUM(J2:J26)</f>
-        <v>1595.5569999999991</v>
+        <v>1536.5569999999991</v>
       </c>
       <c r="K27" s="1">
         <f>J27/I27</f>
-        <v>3.0999372204995438E-2</v>
+        <v>2.6696012137278655E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618BD9C8-7B0C-482C-B6A3-4F4D6F8DB3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370EB2B-092C-4EC0-B928-BBE5CFA4E5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>Stock name</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>NCLH</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>BAC</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -249,8 +255,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,7 +1366,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+      <selection activeCell="A2" sqref="A2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,60 +1425,62 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F2" s="5">
-        <v>36.82</v>
+        <v>37.64</v>
       </c>
       <c r="G2" s="5">
         <v>240</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H18" si="0">F2/E2-1</f>
-        <v>5.8045977011494276E-2</v>
+        <f t="shared" ref="H2:H20" si="0">F2/E2-1</f>
+        <v>8.1609195402299051E-2</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I18" si="1">E2*G2</f>
+        <f t="shared" ref="I2:I20" si="1">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="5">
         <f>I2*H2</f>
-        <v>484.80000000000018</v>
+        <v>681.60000000000173</v>
       </c>
       <c r="K2" s="9">
         <v>0.36696700330661303</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>43983</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3">
+      <c r="D3" s="3">
+        <v>43987</v>
+      </c>
+      <c r="E3" s="2">
         <v>257.60000000000002</v>
       </c>
-      <c r="F3">
-        <v>267.77</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="G3" s="2">
         <v>15</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" si="0"/>
-        <v>3.9479813664596186E-2</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1350931677018625E-2</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" si="1"/>
         <v>3864.0000000000005</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f>I3*H3</f>
-        <v>152.54999999999967</v>
-      </c>
-      <c r="K3" s="9">
+        <v>82.499999999999972</v>
+      </c>
+      <c r="K3" s="10">
         <v>0.19891274030210199</v>
       </c>
     </row>
@@ -1512,39 +1520,41 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>43983</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>43987</v>
+      </c>
+      <c r="E5" s="2">
         <v>169.97</v>
       </c>
-      <c r="F5">
-        <v>170.65</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>166</v>
+      </c>
+      <c r="G5" s="2">
         <v>25</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0007060069424671E-3</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.3357063011119616E-2</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>4249.25</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <f>I5*H5</f>
-        <v>17.000000000000277</v>
-      </c>
-      <c r="K5" s="9">
+        <v>-99.250000000000028</v>
+      </c>
+      <c r="K5" s="10">
         <v>0.169933070473095</v>
       </c>
     </row>
@@ -1579,7 +1589,7 @@
         <v>3409</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J18" si="2">I6*H6</f>
+        <f t="shared" ref="J6:J20" si="2">I6*H6</f>
         <v>524.99999999999966</v>
       </c>
       <c r="K6" s="9"/>
@@ -1599,14 +1609,14 @@
         <v>106.64</v>
       </c>
       <c r="F7">
-        <v>108.9</v>
+        <v>112.11</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>2.1192798199549889E-2</v>
+        <v>5.1294073518379557E-2</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
@@ -1614,7 +1624,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>67.8</v>
+        <v>164.09999999999988</v>
       </c>
       <c r="K7" s="9">
         <v>0.6</v>
@@ -1670,14 +1680,14 @@
         <v>120.73</v>
       </c>
       <c r="F9">
-        <v>127.69</v>
+        <v>136.57</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>5.7649300091112243E-2</v>
+        <v>0.13120185537977291</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
@@ -1685,7 +1695,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>90.479999999999748</v>
+        <v>205.91999999999979</v>
       </c>
       <c r="K9" s="9">
         <v>0.71087546324381601</v>
@@ -1741,14 +1751,14 @@
         <v>46.11</v>
       </c>
       <c r="F11">
-        <v>47.82</v>
+        <v>52.94</v>
       </c>
       <c r="G11">
         <v>65</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>3.7085230969420957E-2</v>
+        <v>0.14812405118195615</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
@@ -1756,7 +1766,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="2"/>
-        <v>111.15000000000002</v>
+        <v>443.94999999999987</v>
       </c>
       <c r="K11" s="9">
         <v>0.78323743729126005</v>
@@ -1812,14 +1822,14 @@
         <v>57.847000000000001</v>
       </c>
       <c r="F13">
-        <v>58.35</v>
+        <v>62.39</v>
       </c>
       <c r="G13">
         <v>69</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>8.6953515307621743E-3</v>
+        <v>7.8534755475651252E-2</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
@@ -1827,7 +1837,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="2"/>
-        <v>34.706999999999965</v>
+        <v>313.46699999999987</v>
       </c>
       <c r="K13" s="9">
         <v>0.73391047114524899</v>
@@ -1847,14 +1857,14 @@
         <v>40.26</v>
       </c>
       <c r="F14">
-        <v>40.26</v>
+        <v>45.92</v>
       </c>
       <c r="G14">
         <v>125</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14058618976651771</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
@@ -1862,7 +1872,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>707.50000000000034</v>
       </c>
       <c r="K14" s="9">
         <v>0.78245904834329505</v>
@@ -1882,14 +1892,14 @@
         <v>23.93</v>
       </c>
       <c r="F15">
-        <v>24.04</v>
+        <v>26.23</v>
       </c>
       <c r="G15">
         <v>80</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>4.5967404931048783E-3</v>
+        <v>9.6113664855829617E-2</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
@@ -1897,7 +1907,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" si="2"/>
-        <v>8.7999999999999794</v>
+        <v>184.00000000000023</v>
       </c>
       <c r="K15" s="9">
         <v>0.75360364093471499</v>
@@ -1917,14 +1927,14 @@
         <v>27.67</v>
       </c>
       <c r="F16">
-        <v>27.67</v>
+        <v>29.36</v>
       </c>
       <c r="G16">
         <v>138</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.1076978677267801E-2</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="1"/>
@@ -1932,44 +1942,47 @@
       </c>
       <c r="J16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>233.22</v>
       </c>
       <c r="K16" s="9">
         <v>0.70526740092075701</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="3">
         <v>43986</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>43987</v>
+      </c>
+      <c r="E17" s="2">
         <v>10.3</v>
       </c>
-      <c r="F17">
-        <v>10.3</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2">
         <v>300</v>
       </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26213592233009697</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>3090</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>809.99999999999966</v>
+      </c>
+      <c r="K17" s="10">
         <v>0.84961032389507796</v>
       </c>
     </row>
@@ -1981,20 +1994,20 @@
         <v>6</v>
       </c>
       <c r="C18" s="8">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="E18">
         <v>19.335000000000001</v>
       </c>
       <c r="F18">
-        <v>19.335000000000001</v>
+        <v>23.81</v>
       </c>
       <c r="G18">
         <v>155</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23144556503749669</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="1"/>
@@ -2002,24 +2015,94 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
+        <v>693.62499999999977</v>
+      </c>
+      <c r="K18" s="9">
         <v>0.81827502857311596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43987</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>16.23</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000073E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>246.00000000000023</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.81398694974522601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43987</v>
+      </c>
+      <c r="E20">
+        <v>28.1</v>
+      </c>
+      <c r="F20">
+        <v>28.434999999999999</v>
+      </c>
+      <c r="G20">
+        <v>72</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1921708185053337E-2</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>2023.2</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>24.119999999999912</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.69058416505884601</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27">
         <f>SUM(I2:I26)</f>
-        <v>57557.54800000001</v>
+        <v>62580.748000000007</v>
       </c>
       <c r="J27">
         <f>SUM(J2:J26)</f>
-        <v>1536.5569999999991</v>
+        <v>5260.0220000000008</v>
       </c>
       <c r="K27" s="1">
         <f>J27/I27</f>
-        <v>2.6696012137278655E-2</v>
+        <v>8.4051759815974084E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370EB2B-092C-4EC0-B928-BBE5CFA4E5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC68A1-6245-47A4-917F-DF90B37C2F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>Stock name</t>
   </si>
@@ -245,14 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,41 +1405,43 @@
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>43983</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5">
+      <c r="D2" s="3">
+        <v>43990</v>
+      </c>
+      <c r="E2" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="F2" s="5">
-        <v>37.64</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G2" s="2">
         <v>240</v>
       </c>
-      <c r="H2" s="7">
-        <f t="shared" ref="H2:H20" si="0">F2/E2-1</f>
-        <v>8.1609195402299051E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I20" si="1">E2*G2</f>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H21" si="0">F2/E2-1</f>
+        <v>5.7471264367816133E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I21" si="1">E2*G2</f>
         <v>8352</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f>I2*H2</f>
-        <v>681.60000000000173</v>
+        <v>480.00000000000034</v>
       </c>
       <c r="K2" s="9">
         <v>0.36696700330661303</v>
@@ -1480,7 +1481,7 @@
         <f>I3*H3</f>
         <v>82.499999999999972</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>0.19891274030210199</v>
       </c>
     </row>
@@ -1518,7 +1519,7 @@
         <f>I4*H4</f>
         <v>102.19999999999965</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1554,7 +1555,7 @@
         <f>I5*H5</f>
         <v>-99.250000000000028</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>0.169933070473095</v>
       </c>
     </row>
@@ -1589,42 +1590,44 @@
         <v>3409</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J20" si="2">I6*H6</f>
+        <f t="shared" ref="J6:J21" si="2">I6*H6</f>
         <v>524.99999999999966</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>43983</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>43990</v>
+      </c>
+      <c r="E7" s="2">
         <v>106.64</v>
       </c>
-      <c r="F7">
-        <v>112.11</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="G7" s="2">
         <v>30</v>
       </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>5.1294073518379557E-2</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4951237809452325E-2</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>3199.2</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>164.09999999999988</v>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>175.79999999999987</v>
       </c>
       <c r="K7" s="9">
         <v>0.6</v>
@@ -1664,38 +1667,41 @@
         <f t="shared" si="2"/>
         <v>-20.699999999999886</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>43984</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>43990</v>
+      </c>
+      <c r="E9" s="2">
         <v>120.73</v>
       </c>
-      <c r="F9">
-        <v>136.57</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2">
+        <v>133.41</v>
+      </c>
+      <c r="G9" s="2">
         <v>13</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13120185537977291</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10502774786714153</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>1569.49</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="2"/>
-        <v>205.91999999999979</v>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>164.83999999999995</v>
       </c>
       <c r="K9" s="9">
         <v>0.71087546324381601</v>
@@ -1735,7 +1741,7 @@
         <f t="shared" si="2"/>
         <v>42.569999999999744</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1744,21 +1750,21 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>43985</v>
       </c>
       <c r="E11">
         <v>46.11</v>
       </c>
       <c r="F11">
-        <v>52.94</v>
+        <v>58.155000000000001</v>
       </c>
       <c r="G11">
         <v>65</v>
       </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14812405118195615</v>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26122316200390383</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
@@ -1766,9 +1772,9 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="2"/>
-        <v>443.94999999999987</v>
-      </c>
-      <c r="K11" s="9">
+        <v>782.92500000000041</v>
+      </c>
+      <c r="K11" s="8">
         <v>0.78323743729126005</v>
       </c>
     </row>
@@ -1806,7 +1812,7 @@
         <f t="shared" si="2"/>
         <v>-79.799999999999713</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1815,21 +1821,21 @@
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>43986</v>
       </c>
       <c r="E13">
         <v>57.847000000000001</v>
       </c>
       <c r="F13">
-        <v>62.39</v>
+        <v>63.65</v>
       </c>
       <c r="G13">
         <v>69</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>7.8534755475651252E-2</v>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10031635175549281</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
@@ -1837,9 +1843,9 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="2"/>
-        <v>313.46699999999987</v>
-      </c>
-      <c r="K13" s="9">
+        <v>400.40699999999947</v>
+      </c>
+      <c r="K13" s="8">
         <v>0.73391047114524899</v>
       </c>
     </row>
@@ -1850,21 +1856,21 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>43986</v>
       </c>
       <c r="E14">
         <v>40.26</v>
       </c>
       <c r="F14">
-        <v>45.92</v>
+        <v>47.77</v>
       </c>
       <c r="G14">
         <v>125</v>
       </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14058618976651771</v>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18653750620963749</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
@@ -1872,77 +1878,83 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="2"/>
-        <v>707.50000000000034</v>
-      </c>
-      <c r="K14" s="9">
+        <v>938.75000000000068</v>
+      </c>
+      <c r="K14" s="8">
         <v>0.78245904834329505</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
         <v>43986</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <v>43990</v>
+      </c>
+      <c r="E15" s="2">
         <v>23.93</v>
       </c>
-      <c r="F15">
-        <v>26.23</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="G15" s="2">
         <v>80</v>
       </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>9.6113664855829617E-2</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12411199331383194</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>1914.4</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="2"/>
-        <v>184.00000000000023</v>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>237.59999999999988</v>
       </c>
       <c r="K15" s="9">
         <v>0.75360364093471499</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
         <v>43986</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="3">
+        <v>43990</v>
+      </c>
+      <c r="E16" s="2">
         <v>27.67</v>
       </c>
-      <c r="F16">
-        <v>29.36</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>29.693999999999999</v>
+      </c>
+      <c r="G16" s="2">
         <v>138</v>
       </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>6.1076978677267801E-2</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3147813516443616E-2</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>3818.46</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="2"/>
-        <v>233.22</v>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>279.31199999999927</v>
       </c>
       <c r="K16" s="9">
         <v>0.70526740092075701</v>
@@ -1982,7 +1994,7 @@
         <f t="shared" si="2"/>
         <v>809.99999999999966</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>0.84961032389507796</v>
       </c>
     </row>
@@ -1993,21 +2005,21 @@
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>43986</v>
       </c>
       <c r="E18">
         <v>19.335000000000001</v>
       </c>
       <c r="F18">
-        <v>23.81</v>
+        <v>25.35</v>
       </c>
       <c r="G18">
         <v>155</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>0.23144556503749669</v>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.31109387121799847</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="1"/>
@@ -2015,9 +2027,9 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" si="2"/>
-        <v>693.62499999999977</v>
-      </c>
-      <c r="K18" s="9">
+        <v>932.32500000000016</v>
+      </c>
+      <c r="K18" s="8">
         <v>0.81827502857311596</v>
       </c>
     </row>
@@ -2028,21 +2040,21 @@
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>43987</v>
       </c>
       <c r="E19">
         <v>15</v>
       </c>
       <c r="F19">
-        <v>16.23</v>
+        <v>17.3</v>
       </c>
       <c r="G19">
         <v>200</v>
       </c>
-      <c r="H19" s="7">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000073E-2</v>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15333333333333332</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="1"/>
@@ -2050,9 +2062,9 @@
       </c>
       <c r="J19" s="5">
         <f t="shared" si="2"/>
-        <v>246.00000000000023</v>
-      </c>
-      <c r="K19" s="9">
+        <v>459.99999999999994</v>
+      </c>
+      <c r="K19" s="8">
         <v>0.81398694974522601</v>
       </c>
     </row>
@@ -2063,21 +2075,21 @@
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>43987</v>
       </c>
       <c r="E20">
         <v>28.1</v>
       </c>
       <c r="F20">
-        <v>28.434999999999999</v>
+        <v>28.24</v>
       </c>
       <c r="G20">
         <v>72</v>
       </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1921708185053337E-2</v>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9822064056939119E-3</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="1"/>
@@ -2085,24 +2097,59 @@
       </c>
       <c r="J20" s="5">
         <f t="shared" si="2"/>
-        <v>24.119999999999912</v>
-      </c>
-      <c r="K20" s="9">
+        <v>10.079999999999924</v>
+      </c>
+      <c r="K20" s="8">
         <v>0.69058416505884601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43990</v>
+      </c>
+      <c r="E21">
+        <v>24.11</v>
+      </c>
+      <c r="F21">
+        <v>24.11</v>
+      </c>
+      <c r="G21">
+        <v>83</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>2001.1299999999999</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.80614420926088304</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27">
         <f>SUM(I2:I26)</f>
-        <v>62580.748000000007</v>
+        <v>64581.878000000004</v>
       </c>
       <c r="J27">
         <f>SUM(J2:J26)</f>
-        <v>5260.0220000000008</v>
+        <v>6224.5590000000002</v>
       </c>
       <c r="K27" s="1">
         <f>J27/I27</f>
-        <v>8.4051759815974084E-2</v>
+        <v>9.6382440287660881E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC68A1-6245-47A4-917F-DF90B37C2F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7E90C-5583-47CB-9243-4937ECB87A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>Stock name</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>BAC</t>
+  </si>
+  <si>
+    <t>DXC</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>ERX</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -253,9 +262,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1415,7 @@
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1432,18 +1442,18 @@
         <v>240</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H21" si="0">F2/E2-1</f>
+        <f t="shared" ref="H2:H22" si="0">F2/E2-1</f>
         <v>5.7471264367816133E-2</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I21" si="1">E2*G2</f>
+        <f t="shared" ref="I2:I22" si="1">E2*G2</f>
         <v>8352</v>
       </c>
       <c r="J2" s="2">
         <f>I2*H2</f>
         <v>480.00000000000034</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>0.36696700330661303</v>
       </c>
     </row>
@@ -1481,7 +1491,7 @@
         <f>I3*H3</f>
         <v>82.499999999999972</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>0.19891274030210199</v>
       </c>
     </row>
@@ -1519,7 +1529,7 @@
         <f>I4*H4</f>
         <v>102.19999999999965</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1555,7 +1565,7 @@
         <f>I5*H5</f>
         <v>-99.250000000000028</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>0.169933070473095</v>
       </c>
     </row>
@@ -1590,10 +1600,10 @@
         <v>3409</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J21" si="2">I6*H6</f>
+        <f t="shared" ref="J6:J22" si="2">I6*H6</f>
         <v>524.99999999999966</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1629,7 +1639,7 @@
         <f t="shared" si="2"/>
         <v>175.79999999999987</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>0.6</v>
       </c>
     </row>
@@ -1667,7 +1677,7 @@
         <f t="shared" si="2"/>
         <v>-20.699999999999886</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1703,7 +1713,7 @@
         <f t="shared" si="2"/>
         <v>164.83999999999995</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>0.71087546324381601</v>
       </c>
     </row>
@@ -1741,38 +1751,41 @@
         <f t="shared" si="2"/>
         <v>42.569999999999744</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
         <v>43985</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E11" s="2">
         <v>46.11</v>
       </c>
-      <c r="F11">
-        <v>58.155000000000001</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2">
+        <v>56.21</v>
+      </c>
+      <c r="G11" s="2">
         <v>65</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26122316200390383</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21904142268488402</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>2997.15</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="2"/>
-        <v>782.92500000000041</v>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>656.50000000000023</v>
       </c>
       <c r="K11" s="8">
         <v>0.78323743729126005</v>
@@ -1812,73 +1825,79 @@
         <f t="shared" si="2"/>
         <v>-79.799999999999713</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>43986</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E13" s="2">
         <v>57.847000000000001</v>
       </c>
-      <c r="F13">
-        <v>63.65</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>62.08</v>
+      </c>
+      <c r="G13" s="2">
         <v>69</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10031635175549281</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3175791311563154E-2</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>3991.4430000000002</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="2"/>
-        <v>400.40699999999947</v>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>292.0769999999996</v>
       </c>
       <c r="K13" s="8">
         <v>0.73391047114524899</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>43986</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E14" s="2">
         <v>40.26</v>
       </c>
-      <c r="F14">
-        <v>47.77</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="G14" s="2">
         <v>125</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18653750620963749</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13015399900645819</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>5032.5</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="2"/>
-        <v>938.75000000000068</v>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>655.0000000000008</v>
       </c>
       <c r="K14" s="8">
         <v>0.78245904834329505</v>
@@ -1918,7 +1937,7 @@
         <f t="shared" si="2"/>
         <v>237.59999999999988</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>0.75360364093471499</v>
       </c>
     </row>
@@ -1956,7 +1975,7 @@
         <f t="shared" si="2"/>
         <v>279.31199999999927</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>0.70526740092075701</v>
       </c>
     </row>
@@ -1994,133 +2013,142 @@
         <f t="shared" si="2"/>
         <v>809.99999999999966</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>0.84961032389507796</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
         <v>43986</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E18" s="2">
         <v>19.335000000000001</v>
       </c>
-      <c r="F18">
-        <v>25.35</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2">
+        <v>25.4724</v>
+      </c>
+      <c r="G18" s="2">
         <v>155</v>
       </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>0.31109387121799847</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31742435996896812</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
         <v>2996.9250000000002</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="2"/>
-        <v>932.32500000000016</v>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>951.2969999999998</v>
       </c>
       <c r="K18" s="8">
         <v>0.81827502857311596</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>43987</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E19" s="2">
         <v>15</v>
       </c>
-      <c r="F19">
-        <v>17.3</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2">
+        <v>16.224</v>
+      </c>
+      <c r="G19" s="2">
         <v>200</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15333333333333332</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1600000000000117E-2</v>
+      </c>
+      <c r="I19" s="2">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>244.80000000000035</v>
       </c>
       <c r="K19" s="8">
         <v>0.81398694974522601</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
         <v>43987</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E20" s="2">
         <v>28.1</v>
       </c>
-      <c r="F20">
-        <v>28.24</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="G20" s="2">
         <v>72</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9822064056939119E-3</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.4234875444839923E-2</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="1"/>
         <v>2023.2</v>
       </c>
-      <c r="J20" s="5">
-        <f t="shared" si="2"/>
-        <v>10.079999999999924</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>-28.800000000000132</v>
+      </c>
+      <c r="K20" s="7">
         <v>0.69058416505884601</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>43990</v>
       </c>
-      <c r="E21">
-        <v>24.11</v>
-      </c>
-      <c r="F21">
-        <v>24.11</v>
-      </c>
-      <c r="G21">
-        <v>83</v>
+      <c r="E21" s="5">
+        <v>23.92</v>
+      </c>
+      <c r="F21" s="5">
+        <v>23.92</v>
+      </c>
+      <c r="G21" s="5">
+        <v>125</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="0"/>
@@ -2128,28 +2156,134 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="1"/>
-        <v>2001.1299999999999</v>
+        <v>2990</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="10">
         <v>0.80614420926088304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43991</v>
+      </c>
+      <c r="E22" s="5">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="G22" s="5">
+        <v>110</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>1994.8500000000001</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.799701143082304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9">
+        <v>43991</v>
+      </c>
+      <c r="E23" s="5">
+        <v>58.85</v>
+      </c>
+      <c r="F23" s="5">
+        <v>58.85</v>
+      </c>
+      <c r="G23" s="5">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6">
+        <f>F23/E23-1</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f>E23*G23</f>
+        <v>1000.45</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" ref="J23" si="3">I23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.799701143082304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43991</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>21.91</v>
+      </c>
+      <c r="F24" s="5">
+        <v>21.91</v>
+      </c>
+      <c r="G24" s="5">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6">
+        <f>F24/E24-1</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f>E24*G24</f>
+        <v>2497.7400000000002</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" ref="J24" si="4">I24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.81784680997471304</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27">
         <f>SUM(I2:I26)</f>
-        <v>64581.878000000004</v>
+        <v>71063.788000000015</v>
       </c>
       <c r="J27">
         <f>SUM(J2:J26)</f>
-        <v>6224.5590000000002</v>
+        <v>5470.9459999999999</v>
       </c>
       <c r="K27" s="1">
         <f>J27/I27</f>
-        <v>9.6382440287660881E-2</v>
+        <v>7.6986411138117189E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optionstrading/stocktrack.xlsx
+++ b/optionstrading/stocktrack.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python272018\owenpython2018\mypython\optionstrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7E90C-5583-47CB-9243-4937ECB87A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793EA7AB-F41B-4796-BEFA-D01FBEB29E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="Jun" sheetId="2" r:id="rId2"/>
+    <sheet name="Jul" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Jun!$D$1:$D$27</definedName>
@@ -27,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
   <si>
     <t>Stock name</t>
   </si>
@@ -184,9 +187,6 @@
     <t>ADBE</t>
   </si>
   <si>
-    <t>Curr K</t>
-  </si>
-  <si>
     <t>NCLH</t>
   </si>
   <si>
@@ -203,6 +203,90 @@
   </si>
   <si>
     <t>ERX</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Curr P</t>
+  </si>
+  <si>
+    <t>PAYX</t>
+  </si>
+  <si>
+    <t>ADSK</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>RMD</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>WKHS</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>AKAM</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>Stock ID</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>DOCU</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>MXIM</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>XLNX</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>TWLO</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>BGNE</t>
   </si>
 </sst>
 </file>
@@ -212,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +313,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,18 +346,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,15 +1318,15 @@
         <v>250</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" ref="H19:H21" si="5">F19/E19-1</f>
+        <f>F19/E19-1</f>
         <v>-1.1327669498584103E-2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I19:I21" si="6">E19*G19</f>
+        <f>E19*G19</f>
         <v>3001.5</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" ref="J19:J21" si="7">I19*H19</f>
+        <f>I19*H19</f>
         <v>-34.000000000000185</v>
       </c>
     </row>
@@ -1263,15 +1354,15 @@
         <v>500</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="5"/>
+        <f>F20/E20-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="6"/>
+        <f>E20*G20</f>
         <v>1800</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="7"/>
+        <f>I20*H20</f>
         <v>359.99999999999994</v>
       </c>
     </row>
@@ -1286,7 +1377,7 @@
         <v>43978</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:D22" si="8">C21+14</f>
+        <f>C21+14</f>
         <v>43992</v>
       </c>
       <c r="E21" s="2">
@@ -1299,15 +1390,15 @@
         <v>105</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="5"/>
+        <f>F21/E21-1</f>
         <v>8.3245521601685857E-2</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="6"/>
+        <f>E21*G21</f>
         <v>996.45</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="7"/>
+        <f>I21*H21</f>
         <v>82.949999999999875</v>
       </c>
     </row>
@@ -1322,7 +1413,7 @@
         <v>43978</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="8"/>
+        <f>C22+14</f>
         <v>43992</v>
       </c>
       <c r="E22" s="2">
@@ -1335,15 +1426,15 @@
         <v>75</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ref="H22" si="9">F22/E22-1</f>
+        <f>F22/E22-1</f>
         <v>-6.273062730627299E-2</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22" si="10">E22*G22</f>
+        <f>E22*G22</f>
         <v>3048.75</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22" si="11">I22*H22</f>
+        <f>I22*H22</f>
         <v>-191.24999999999977</v>
       </c>
     </row>
@@ -1372,16 +1463,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC3804E-B392-49C9-A360-B2615FD9F68C}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1415,8 +1505,8 @@
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>49</v>
+      <c r="K1" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1543,7 @@
         <f>I2*H2</f>
         <v>480.00000000000034</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>0.36696700330661303</v>
       </c>
     </row>
@@ -1491,7 +1581,7 @@
         <f>I3*H3</f>
         <v>82.499999999999972</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0.19891274030210199</v>
       </c>
     </row>
@@ -1529,7 +1619,7 @@
         <f>I4*H4</f>
         <v>102.19999999999965</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1561,11 +1651,11 @@
         <f t="shared" si="1"/>
         <v>4249.25</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="8">
         <f>I5*H5</f>
         <v>-99.250000000000028</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.169933070473095</v>
       </c>
     </row>
@@ -1603,7 +1693,7 @@
         <f t="shared" ref="J6:J22" si="2">I6*H6</f>
         <v>524.99999999999966</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1639,7 +1729,7 @@
         <f t="shared" si="2"/>
         <v>175.79999999999987</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -1673,11 +1763,11 @@
         <f t="shared" si="1"/>
         <v>1464.3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>-20.699999999999886</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1713,7 +1803,7 @@
         <f t="shared" si="2"/>
         <v>164.83999999999995</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.71087546324381601</v>
       </c>
     </row>
@@ -1751,7 +1841,7 @@
         <f t="shared" si="2"/>
         <v>42.569999999999744</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1787,7 +1877,7 @@
         <f t="shared" si="2"/>
         <v>656.50000000000023</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0.78323743729126005</v>
       </c>
     </row>
@@ -1821,11 +1911,11 @@
         <f t="shared" si="1"/>
         <v>3070.7999999999997</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>-79.799999999999713</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1861,7 +1951,7 @@
         <f t="shared" si="2"/>
         <v>292.0769999999996</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>0.73391047114524899</v>
       </c>
     </row>
@@ -1899,7 +1989,7 @@
         <f t="shared" si="2"/>
         <v>655.0000000000008</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>0.78245904834329505</v>
       </c>
     </row>
@@ -1937,7 +2027,7 @@
         <f t="shared" si="2"/>
         <v>237.59999999999988</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.75360364093471499</v>
       </c>
     </row>
@@ -1975,7 +2065,7 @@
         <f t="shared" si="2"/>
         <v>279.31199999999927</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.70526740092075701</v>
       </c>
     </row>
@@ -2013,13 +2103,13 @@
         <f t="shared" si="2"/>
         <v>809.99999999999966</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>0.84961032389507796</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -2051,13 +2141,13 @@
         <f t="shared" si="2"/>
         <v>951.2969999999998</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>0.81827502857311596</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -2089,13 +2179,13 @@
         <f t="shared" si="2"/>
         <v>244.80000000000035</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>0.81398694974522601</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -2123,7 +2213,7 @@
         <f t="shared" si="1"/>
         <v>2023.2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="8">
         <f t="shared" si="2"/>
         <v>-28.800000000000132</v>
       </c>
@@ -2131,159 +2221,592 @@
         <v>0.69058416505884601</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
         <v>43990</v>
       </c>
-      <c r="E21" s="5">
+      <c r="D21" s="3">
+        <v>43992</v>
+      </c>
+      <c r="E21" s="2">
         <v>23.92</v>
       </c>
-      <c r="F21" s="5">
-        <v>23.92</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="G21" s="2">
         <v>125</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+        <v>-7.6086956521739135E-2</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="1"/>
         <v>2990</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
+        <v>-227.50000000000003</v>
+      </c>
+      <c r="K21" s="7">
         <v>0.80614420926088304</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43991</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43992</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <v>17.024999999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>110</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.1207609594706502E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>1994.8500000000001</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="2"/>
+        <v>-122.10000000000028</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.799701143082304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
         <v>43991</v>
       </c>
-      <c r="E22" s="5">
-        <v>18.135000000000002</v>
-      </c>
-      <c r="F22" s="5">
-        <v>18.135000000000002</v>
-      </c>
-      <c r="G22" s="5">
-        <v>110</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>1994.8500000000001</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
+      <c r="D23" s="3">
+        <v>43993</v>
+      </c>
+      <c r="E23" s="2">
+        <v>58.85</v>
+      </c>
+      <c r="F23" s="2">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H29" si="3">F23/E23-1</f>
+        <v>-1.4443500424808908E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23:I29" si="4">E23*G23</f>
+        <v>1000.45</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" ref="J23:J29" si="5">I23*H23</f>
+        <v>-14.450000000000072</v>
+      </c>
+      <c r="K23" s="7">
         <v>0.799701143082304</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
         <v>43991</v>
       </c>
-      <c r="E23" s="5">
-        <v>58.85</v>
-      </c>
-      <c r="F23" s="5">
-        <v>58.85</v>
-      </c>
-      <c r="G23" s="5">
-        <v>17</v>
-      </c>
-      <c r="H23" s="6">
-        <f>F23/E23-1</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f>E23*G23</f>
-        <v>1000.45</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" ref="J23" si="3">I23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="10">
-        <v>0.799701143082304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="D24" s="3">
+        <v>43992</v>
+      </c>
+      <c r="E24" s="2">
+        <v>21.91</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>114</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.6097672295755454E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="4"/>
+        <v>2497.7400000000002</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="5"/>
+        <v>-115.14000000000024</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.81784680997471304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="9">
-        <v>43991</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <v>21.91</v>
-      </c>
-      <c r="F24" s="5">
-        <v>21.91</v>
-      </c>
-      <c r="G24" s="5">
-        <v>114</v>
-      </c>
-      <c r="H24" s="6">
-        <f>F24/E24-1</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f>E24*G24</f>
-        <v>2497.7400000000002</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" ref="J24" si="4">I24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.81784680997471304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <f>SUM(I2:I26)</f>
-        <v>71063.788000000015</v>
-      </c>
-      <c r="J27">
-        <f>SUM(J2:J26)</f>
-        <v>5470.9459999999999</v>
-      </c>
-      <c r="K27" s="1">
-        <f>J27/I27</f>
-        <v>7.6986411138117189E-2</v>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43993</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>191.01</v>
+      </c>
+      <c r="F25" s="2">
+        <v>195</v>
+      </c>
+      <c r="G25" s="2">
+        <v>52</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0888958693262127E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>9932.52</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="5"/>
+        <v>207.47999999999996</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.80237000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43993</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43998</v>
+      </c>
+      <c r="E26" s="2">
+        <v>122.87</v>
+      </c>
+      <c r="F26" s="2">
+        <v>128</v>
+      </c>
+      <c r="G26" s="2">
+        <v>81</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1751444616261013E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>9952.4700000000012</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="5"/>
+        <v>415.52999999999929</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43998</v>
+      </c>
+      <c r="D27" s="3">
+        <v>43999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>50.7</v>
+      </c>
+      <c r="F27" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>98</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.3668639053254448E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="4"/>
+        <v>4968.6000000000004</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="5"/>
+        <v>-117.60000000000005</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.78323743729126005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43999</v>
+      </c>
+      <c r="D28" s="3">
+        <v>44003</v>
+      </c>
+      <c r="E28" s="2">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="F28" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.7181996086105729E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="4"/>
+        <v>3066</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="5"/>
+        <v>-114.00000000000017</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44006</v>
+      </c>
+      <c r="E29" s="2">
+        <v>241.68</v>
+      </c>
+      <c r="F29" s="2">
+        <v>233.4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.4260178748758641E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="4"/>
+        <v>4833.6000000000004</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="5"/>
+        <v>-165.59999999999977</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>44005</v>
+      </c>
+      <c r="E30" s="2">
+        <v>254</v>
+      </c>
+      <c r="F30" s="2">
+        <v>254.6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" ref="H30:H35" si="6">F30/E30-1</f>
+        <v>2.3622047244094002E-3</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:I35" si="7">E30*G30</f>
+        <v>3048</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" ref="J30:J35" si="8">I30*H30</f>
+        <v>7.1999999999998519</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>44006</v>
+      </c>
+      <c r="E31" s="2">
+        <v>168.2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>171.9</v>
+      </c>
+      <c r="G31" s="2">
+        <v>24</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="6"/>
+        <v>2.1997621878715901E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="7"/>
+        <v>4036.7999999999997</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="8"/>
+        <v>88.800000000000338</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>44006</v>
+      </c>
+      <c r="E32" s="2">
+        <v>176.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>181.1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>29</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="6"/>
+        <v>2.6062322946175609E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="7"/>
+        <v>5118.5</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="8"/>
+        <v>133.39999999999986</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44004</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44006</v>
+      </c>
+      <c r="E33" s="2">
+        <v>436.4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>440.6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>12</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="6"/>
+        <v>9.624197983501448E-3</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="7"/>
+        <v>5236.7999999999993</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="8"/>
+        <v>50.400000000000375</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44004</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44006</v>
+      </c>
+      <c r="E34" s="2">
+        <v>292.99</v>
+      </c>
+      <c r="F34" s="2">
+        <v>294.89999999999998</v>
+      </c>
+      <c r="G34" s="2">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="6"/>
+        <v>6.5189938223146893E-3</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="7"/>
+        <v>4101.8600000000006</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="8"/>
+        <v>26.739999999999736</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44005</v>
+      </c>
+      <c r="D35" s="3">
+        <v>44006</v>
+      </c>
+      <c r="E35" s="2">
+        <v>203.35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>202.4</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="6"/>
+        <v>-4.6717482173591618E-3</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="7"/>
+        <v>3050.25</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="8"/>
+        <v>-14.249999999999783</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.80237000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>SUM(I2:I35)</f>
+        <v>128409.18800000004</v>
+      </c>
+      <c r="J40">
+        <f>SUM(J2:J35)</f>
+        <v>5509.8559999999979</v>
+      </c>
+      <c r="K40" s="1">
+        <f>J40/I40</f>
+        <v>4.2908580653901469E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <f>J40/40000</f>
+        <v>0.13774639999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2294,4 +2817,835 @@
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193F7101-AA20-4994-9C7C-C5436344E3BE}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44013</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44018</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.595000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>14.92</v>
+      </c>
+      <c r="G2" s="2">
+        <v>136</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H13" si="0">F2/E2-1</f>
+        <v>2.2267899965741744E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I13" si="1">E2*G2</f>
+        <v>1984.92</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J7" si="2">I2*H2</f>
+        <v>44.200000000000102</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44013</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44027</v>
+      </c>
+      <c r="E3" s="2">
+        <v>53.005000000000003</v>
+      </c>
+      <c r="F3" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>204</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10366946514479758</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>10813.02</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="2"/>
+        <v>1120.9799999999991</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44013</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44021</v>
+      </c>
+      <c r="E4" s="2">
+        <v>189.91</v>
+      </c>
+      <c r="F4" s="2">
+        <v>192.2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2058343425833229E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>3038.56</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>36.639999999999816</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44014</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44018</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>97</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.1095890410958846E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>2124.2999999999997</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>-87.299999999999869</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44014</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44020</v>
+      </c>
+      <c r="E6" s="2">
+        <v>115.1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>114.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.6064291920069316E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>4028.5</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>-10.499999999999924</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44014</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44020</v>
+      </c>
+      <c r="E7" s="2">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>157.54</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3605615826419761E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>7834.9999999999991</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>41.999999999999879</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44018</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44025</v>
+      </c>
+      <c r="E8" s="2">
+        <v>112.7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>113.15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9929015084294583E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>8001.7</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J13" si="3">I8*H8</f>
+        <v>31.949999999999996</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44019</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44025</v>
+      </c>
+      <c r="E9" s="2">
+        <v>336.42500000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6783829976963611E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>3364.25</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>123.74999999999983</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44020</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E10" s="2">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2">
+        <v>80</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.1925754060324865E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>10344</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>-744.00000000000045</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44020</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44025</v>
+      </c>
+      <c r="E11" s="2">
+        <v>204.39</v>
+      </c>
+      <c r="F11" s="2">
+        <v>208.4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9619355154361751E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>6131.7</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>120.29999999999994</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44021</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44028</v>
+      </c>
+      <c r="E12" s="2">
+        <v>123.9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>109.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>56</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.11702986279257466</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>6938.4000000000005</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>-812.00000000000011</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44021</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44025</v>
+      </c>
+      <c r="E13" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>92.3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>83</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.7471620227038214E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>8042.7000000000007</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>-381.8000000000003</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44025</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44033</v>
+      </c>
+      <c r="E14" s="2">
+        <v>71.78</v>
+      </c>
+      <c r="F14" s="2">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="G14" s="2">
+        <v>108</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14" si="4">F14/E14-1</f>
+        <v>-1.6857063248815973E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" ref="I14" si="5">E14*G14</f>
+        <v>7752.24</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ref="J14" si="6">I14*H14</f>
+        <v>-130.68000000000114</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44025</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44032</v>
+      </c>
+      <c r="E15" s="2">
+        <v>125.15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>125.85</v>
+      </c>
+      <c r="G15" s="2">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ref="H15:H21" si="7">F15/E15-1</f>
+        <v>5.5932880543347885E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" ref="I15:I21" si="8">E15*G15</f>
+        <v>7884.4500000000007</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ref="J15" si="9">I15*H15</f>
+        <v>44.09999999999993</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44025</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100.71</v>
+      </c>
+      <c r="F16" s="2">
+        <v>103.86</v>
+      </c>
+      <c r="G16" s="2">
+        <v>80</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="7"/>
+        <v>3.1277926720286064E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="8"/>
+        <v>8056.7999999999993</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16" si="10">I16*H16</f>
+        <v>252.00000000000074</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E17" s="2">
+        <v>81.27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2">
+        <v>94</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="7"/>
+        <v>0.18124769287559994</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="8"/>
+        <v>7639.3799999999992</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17" si="11">I17*H17</f>
+        <v>1384.6200000000006</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E18" s="2">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="F18" s="2">
+        <v>81</v>
+      </c>
+      <c r="G18" s="2">
+        <v>168</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="7"/>
+        <v>0.22393472348141419</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="8"/>
+        <v>11118.240000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ref="J18:J20" si="12">I18*H18</f>
+        <v>2489.7599999999989</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44032</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E19" s="2">
+        <v>253.43</v>
+      </c>
+      <c r="F19" s="2">
+        <v>242.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="7"/>
+        <v>-4.4312038827289624E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="8"/>
+        <v>2787.73</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="12"/>
+        <v>-123.5300000000001</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44033</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E20" s="2">
+        <v>258.779</v>
+      </c>
+      <c r="F20" s="2">
+        <v>265</v>
+      </c>
+      <c r="G20" s="2">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4039817759555548E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="8"/>
+        <v>2846.569</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="12"/>
+        <v>68.431000000000282</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44033</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E21" s="2">
+        <v>251.97</v>
+      </c>
+      <c r="F21" s="2">
+        <v>266</v>
+      </c>
+      <c r="G21" s="2">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="7"/>
+        <v>5.568123189268559E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="8"/>
+        <v>2771.67</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ref="J21" si="13">I21*H21</f>
+        <v>154.32999999999987</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f>SUM(I2:I30)</f>
+        <v>123504.12900000002</v>
+      </c>
+      <c r="J60">
+        <f>SUM(J2:J39)</f>
+        <v>3623.250999999997</v>
+      </c>
+      <c r="K60" s="1">
+        <f>J60/40000</f>
+        <v>9.0581274999999919E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>